--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F7B4527-13E5-4391-8BFB-0AEA23534ED5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F32696F4-3166-41DF-A755-C7B7927BA0D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>0 x</t>
   </si>
@@ -128,13 +128,31 @@
   </si>
   <si>
     <t>ho %</t>
+  </si>
+  <si>
+    <t>Buffer di definisikan diawal</t>
+  </si>
+  <si>
+    <t>Buffer di definisikan diakhir</t>
+  </si>
+  <si>
+    <t>80x ++ (x data)</t>
+  </si>
+  <si>
+    <t>80x ++</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>80x ++ (1.345 data)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +167,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +230,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -311,12 +354,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -350,6 +402,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,13 +481,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H52"/>
+  <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,13 +786,41 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="8" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="K2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+    </row>
+    <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -746,12 +837,32 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="K3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>584</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -770,10 +881,32 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+      <c r="K4" s="34">
+        <v>584</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -792,10 +925,30 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>76</v>
+      </c>
+      <c r="O5" s="1">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>34</v>
+      </c>
+      <c r="R5" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -819,10 +972,35 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="2">
+        <f>($A$4-N5)/$A$4</f>
+        <v>0.86986301369863017</v>
+      </c>
+      <c r="O6" s="2">
+        <f>($A$4-O5)/$A$4</f>
+        <v>0.91609589041095896</v>
+      </c>
+      <c r="P6" s="2">
+        <f>($A$4-P5)/$A$4</f>
+        <v>0.94691780821917804</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>($A$4-Q5)/$A$4</f>
+        <v>0.94178082191780821</v>
+      </c>
+      <c r="R6" s="2">
+        <f>($A$4-R5)/$A$4</f>
+        <v>0.96404109589041098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -841,10 +1019,30 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1">
+        <v>569</v>
+      </c>
+      <c r="O7" s="1">
+        <v>537</v>
+      </c>
+      <c r="P7" s="1">
+        <v>523</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>518</v>
+      </c>
+      <c r="R7" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -868,12 +1066,37 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2">
+        <f>($A$4-N7)/$A$4</f>
+        <v>2.5684931506849314E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f>($A$4-O7)/$A$4</f>
+        <v>8.0479452054794523E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f>($A$4-P7)/$A$4</f>
+        <v>0.10445205479452055</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>($A$4-Q7)/$A$4</f>
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="R8" s="2">
+        <f>($A$4-R7)/$A$4</f>
+        <v>0.26883561643835618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
         <v>980</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -892,10 +1115,32 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
+      <c r="K9" s="40">
+        <v>980</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -914,10 +1159,30 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="16">
+        <v>126</v>
+      </c>
+      <c r="O10" s="16">
+        <v>80</v>
+      </c>
+      <c r="P10" s="16">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>53</v>
+      </c>
+      <c r="R10" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -941,10 +1206,35 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="18">
+        <f>($A$9-N10)/$A$9</f>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="O11" s="18">
+        <f>($A$9-O10)/$A$9</f>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="P11" s="18">
+        <f>($A$9-P10)/$A$9</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q11" s="18">
+        <f>($A$9-Q10)/$A$9</f>
+        <v>0.94591836734693879</v>
+      </c>
+      <c r="R11" s="18">
+        <f>($A$9-R10)/$A$9</f>
+        <v>0.96632653061224494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -963,10 +1253,30 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="16">
+        <v>947</v>
+      </c>
+      <c r="O12" s="16">
+        <v>917</v>
+      </c>
+      <c r="P12" s="16">
+        <v>905</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>895</v>
+      </c>
+      <c r="R12" s="16">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -990,12 +1300,37 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="18">
+        <f>($A$9-N12)/$A$9</f>
+        <v>3.3673469387755103E-2</v>
+      </c>
+      <c r="O13" s="18">
+        <f>($A$9-O12)/$A$9</f>
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="P13" s="18">
+        <f>($A$9-P12)/$A$9</f>
+        <v>7.6530612244897961E-2</v>
+      </c>
+      <c r="Q13" s="18">
+        <f>($A$9-Q12)/$A$9</f>
+        <v>8.673469387755102E-2</v>
+      </c>
+      <c r="R13" s="18">
+        <f>($A$9-R12)/$A$9</f>
+        <v>0.42448979591836733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>1280</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1014,10 +1349,32 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="K14" s="22">
+        <v>1280</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1034,10 +1391,30 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="4">
+        <v>163</v>
+      </c>
+      <c r="O15" s="49">
+        <v>103</v>
+      </c>
+      <c r="P15" s="49">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>68</v>
+      </c>
+      <c r="R15" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1061,10 +1438,35 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="6">
+        <f>($A$14-N15)/$A$14</f>
+        <v>0.87265625000000002</v>
+      </c>
+      <c r="O16" s="50">
+        <f>($A$14-O15)/$A$14</f>
+        <v>0.91953125000000002</v>
+      </c>
+      <c r="P16" s="50">
+        <f>($A$14-P15)/$A$14</f>
+        <v>0.95078125000000002</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>($A$14-Q15)/$A$14</f>
+        <v>0.94687500000000002</v>
+      </c>
+      <c r="R16" s="6">
+        <f>($A$14-R15)/$A$14</f>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1081,10 +1483,30 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1223</v>
+      </c>
+      <c r="O17" s="49">
+        <v>1193</v>
+      </c>
+      <c r="P17" s="49">
+        <v>1181</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1120</v>
+      </c>
+      <c r="R17" s="4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1108,12 +1530,37 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="6">
+        <f>($A$14-N17)/$A$14</f>
+        <v>4.4531250000000001E-2</v>
+      </c>
+      <c r="O18" s="50">
+        <f>($A$14-O17)/$A$14</f>
+        <v>6.7968749999999994E-2</v>
+      </c>
+      <c r="P18" s="50">
+        <f>($A$14-P17)/$A$14</f>
+        <v>7.7343750000000003E-2</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>($A$14-Q17)/$A$14</f>
+        <v>0.125</v>
+      </c>
+      <c r="R18" s="6">
+        <f>($A$14-R17)/$A$14</f>
+        <v>0.54765624999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <v>1345</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1132,10 +1579,32 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="K19" s="28">
+        <v>1345</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1152,10 +1621,30 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="7">
+        <v>171</v>
+      </c>
+      <c r="O20" s="7">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>71</v>
+      </c>
+      <c r="R20" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1176,10 +1665,35 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="8">
+        <f>($A$19-N20)/$A$19</f>
+        <v>0.87286245353159853</v>
+      </c>
+      <c r="O21" s="8">
+        <f>($A$19-O20)/$A$19</f>
+        <v>0.91970260223048328</v>
+      </c>
+      <c r="P21" s="8">
+        <f>($A$19-P20)/$A$19</f>
+        <v>0.95092936802973982</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>($A$19-Q20)/$A$19</f>
+        <v>0.9472118959107807</v>
+      </c>
+      <c r="R21" s="8">
+        <f>($A$19-R20)/$A$19</f>
+        <v>0.96877323420074346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1196,10 +1710,28 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1282</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1254</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1243</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1182</v>
+      </c>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1220,12 +1752,34 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="8">
+        <f>($A$19-N22)/$A$19</f>
+        <v>4.6840148698884761E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <f>($A$19-O22)/$A$19</f>
+        <v>6.7657992565055766E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <f>($A$19-P22)/$A$19</f>
+        <v>7.5836431226765796E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>($A$19-Q22)/$A$19</f>
+        <v>0.12118959107806691</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1243,11 +1797,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>584</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,9 +1821,9 @@
         <v>8.1119999999999994E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,36 +1843,36 @@
         <v>3.248E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="45" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="19">
         <f>D29+D30</f>
         <v>2.8124000000000003E-2</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="19">
         <f>E29+E30</f>
         <v>1.7992000000000001E-2</v>
       </c>
-      <c r="F31" s="45">
-        <f t="shared" ref="E31:H31" si="0">F29+F30</f>
+      <c r="F31" s="19">
+        <f t="shared" ref="F31:H31" si="0">F29+F30</f>
         <v>1.3368E-2</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>1.2564000000000001E-2</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1339,8 +1893,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1361,37 +1915,37 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="45" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="19">
         <f>D32+D33</f>
         <v>8.1656000000000006E-2</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="19">
         <f t="shared" ref="E34:H34" si="1">E32+E33</f>
         <v>7.3768E-2</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="19">
         <f t="shared" si="1"/>
         <v>7.2819999999999996E-2</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="19">
         <f t="shared" si="1"/>
         <v>6.8264000000000005E-2</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="19">
         <f t="shared" si="1"/>
         <v>5.8020000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="40">
         <v>980</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -1412,8 +1966,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -1434,35 +1988,35 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="45" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="19">
         <f>D35+D36</f>
         <v>4.6887999999999999E-2</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="19">
         <f t="shared" ref="E37:H37" si="2">E35+E36</f>
         <v>3.1283999999999999E-2</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="19">
         <f t="shared" si="2"/>
         <v>2.1492000000000001E-2</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="19">
         <f t="shared" si="2"/>
         <v>2.0060000000000001E-2</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="19">
         <f t="shared" si="2"/>
         <v>1.7916000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -1483,8 +2037,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -1505,37 +2059,37 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="45" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="19">
         <f>D38+D39</f>
         <v>0.13631199999999999</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="19">
         <f t="shared" ref="E40:H40" si="3">E38+E39</f>
         <v>0.12464</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="19">
         <f t="shared" si="3"/>
         <v>0.11977600000000001</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="19">
         <f t="shared" si="3"/>
         <v>0.11646000000000001</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="19">
         <f t="shared" si="3"/>
         <v>7.9743999999999995E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="22">
         <v>1280</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +2108,8 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -1574,32 +2128,32 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="45" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="19">
         <f>D41+D42</f>
         <v>6.0988000000000001E-2</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="19">
         <f t="shared" ref="E43:G43" si="4">E41+E42</f>
         <v>4.0292000000000001E-2</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="19">
         <f t="shared" si="4"/>
         <v>2.9555999999999999E-2</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="19">
         <f t="shared" si="4"/>
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -1618,8 +2172,8 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -1638,34 +2192,34 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="45" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="19">
         <f>D44+D45</f>
         <v>0.16677999999999998</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="19">
         <f t="shared" ref="E46:G46" si="5">E44+E45</f>
         <v>0.14468</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="19">
         <f t="shared" si="5"/>
         <v>0.1249</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="19">
         <f t="shared" si="5"/>
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="A47" s="28">
         <v>1345</v>
       </c>
-      <c r="B47" s="26"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -1684,8 +2238,8 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -1704,32 +2258,32 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="45" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="19">
         <f>D47+D48</f>
         <v>6.4096E-2</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="19">
         <f t="shared" ref="E49:G49" si="6">E47+E48</f>
         <v>4.2319999999999997E-2</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="19">
         <f t="shared" si="6"/>
         <v>3.1071999999999999E-2</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="19">
         <f t="shared" si="6"/>
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -1748,8 +2302,8 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -1768,31 +2322,38 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="45" t="s">
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="19">
         <f>D50+D51</f>
         <v>0.15494000000000002</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="19">
         <f t="shared" ref="E52:G52" si="7">E50+E51</f>
         <v>0.13190000000000002</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="19">
         <f t="shared" si="7"/>
         <v>0.10985200000000001</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="19">
         <f t="shared" si="7"/>
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="K14:L18"/>
+    <mergeCell ref="K19:L23"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A41:B46"/>

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F32696F4-3166-41DF-A755-C7B7927BA0D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB9DCF34-23EF-42DA-8C9D-15F6138B3F4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
   <si>
     <t>0 x</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>80x ++ (1.345 data)</t>
+  </si>
+  <si>
+    <t>0x</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +245,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -363,12 +372,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -403,12 +421,59 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,53 +510,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +811,7 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
@@ -795,32 +820,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="K2" s="46" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -837,10 +862,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -859,10 +884,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="27">
         <v>584</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -881,10 +906,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="27">
         <v>584</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -905,8 +930,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -925,8 +950,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -947,8 +972,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -972,8 +997,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -999,8 +1024,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1019,8 +1044,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1041,8 +1066,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1066,8 +1091,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1093,10 +1118,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="33">
         <v>980</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1115,32 +1140,32 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="33">
         <v>980</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1159,8 +1184,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1181,8 +1206,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1206,8 +1231,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1233,8 +1258,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1253,8 +1278,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1275,8 +1300,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1300,8 +1325,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1327,10 +1352,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="39">
         <v>1280</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1349,20 +1374,20 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="39">
         <v>1280</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="48" t="s">
+      <c r="P14" s="21" t="s">
         <v>38</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -1373,8 +1398,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1391,18 +1416,18 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="4">
         <v>163</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="22">
         <v>103</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="22">
         <v>63</v>
       </c>
       <c r="Q15" s="4">
@@ -1413,8 +1438,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1438,8 +1463,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1447,11 +1472,11 @@
         <f>($A$14-N15)/$A$14</f>
         <v>0.87265625000000002</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="23">
         <f>($A$14-O15)/$A$14</f>
         <v>0.91953125000000002</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="23">
         <f>($A$14-P15)/$A$14</f>
         <v>0.95078125000000002</v>
       </c>
@@ -1465,13 +1490,13 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="4">
-        <v>1115</v>
+        <v>1070</v>
       </c>
       <c r="E17" s="4">
         <v>996</v>
@@ -1483,18 +1508,18 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="N17" s="4">
         <v>1223</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="22">
         <v>1193</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="22">
         <v>1181</v>
       </c>
       <c r="Q17" s="4">
@@ -1505,14 +1530,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="6">
         <f>($A$14-D17)/$A$14</f>
-        <v>0.12890625</v>
+        <v>0.1640625</v>
       </c>
       <c r="E18" s="6">
         <f>($A$14-E17)/$A$14</f>
@@ -1530,8 +1555,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1539,11 +1564,11 @@
         <f>($A$14-N17)/$A$14</f>
         <v>4.4531250000000001E-2</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="23">
         <f>($A$14-O17)/$A$14</f>
         <v>6.7968749999999994E-2</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="23">
         <f>($A$14-P17)/$A$14</f>
         <v>7.7343750000000003E-2</v>
       </c>
@@ -1557,10 +1582,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="45">
         <v>1345</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1579,10 +1604,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="45">
         <v>1345</v>
       </c>
-      <c r="L19" s="29"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1603,8 +1628,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1621,8 +1646,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1643,8 +1668,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1665,8 +1690,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1692,8 +1717,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1710,8 +1735,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1730,8 +1755,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1752,8 +1777,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1775,11 +1800,35 @@
       </c>
       <c r="R23" s="5"/>
     </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K24" s="53">
+        <v>1640</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1796,12 +1845,32 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
+      <c r="K28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="27">
         <v>584</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,10 +1889,33 @@
       <c r="H29" s="1">
         <v>8.1119999999999994E-3</v>
       </c>
+      <c r="J29" s="51"/>
+      <c r="K29" s="27">
+        <v>584</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2.1028000000000002E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.3664000000000001E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.0004000000000001E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="R29" s="1">
+        <v>8.5039999999999994E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1842,10 +1934,30 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="1">
+        <v>7.2519999999999998E-3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>4.5640000000000003E-3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3.6480000000000002E-3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3.7160000000000001E-3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3.248E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -1869,10 +1981,35 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="19">
+        <f>N29+N30</f>
+        <v>2.828E-2</v>
+      </c>
+      <c r="O31" s="19">
+        <f>O29+O30</f>
+        <v>1.8228000000000001E-2</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" ref="P31:R31" si="1">P29+P30</f>
+        <v>1.3652000000000001E-2</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2876E-2</v>
+      </c>
+      <c r="R31" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1751999999999999E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1891,10 +2028,31 @@
       <c r="H32" s="1">
         <v>4.0691999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="1">
+        <v>6.1112E-2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5.3887999999999998E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5.2519999999999997E-2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4.8807999999999997E-2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>4.1744000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,10 +2071,30 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2.1187999999999999E-2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2.0572E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1.7328E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -1925,27 +2103,52 @@
         <v>8.1656000000000006E-2</v>
       </c>
       <c r="E34" s="19">
-        <f t="shared" ref="E34:H34" si="1">E32+E33</f>
+        <f t="shared" ref="E34:H34" si="2">E32+E33</f>
         <v>7.3768E-2</v>
       </c>
       <c r="F34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2819999999999996E-2</v>
       </c>
       <c r="G34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8264000000000005E-2</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="19">
+        <f>N32+N33</f>
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" ref="O34:R34" si="3">O32+O33</f>
+        <v>7.4459999999999998E-2</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="3"/>
+        <v>7.2819999999999996E-2</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="3"/>
+        <v>6.9307999999999995E-2</v>
+      </c>
+      <c r="R34" s="19">
+        <f t="shared" si="3"/>
+        <v>5.9072E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
         <v>980</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -1964,10 +2167,33 @@
       <c r="H35" s="16">
         <v>1.2716E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="33">
+        <v>980</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="16">
+        <v>3.5128E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <v>2.2716E-2</v>
+      </c>
+      <c r="P35" s="16">
+        <v>1.6028000000000001E-2</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>1.4524E-2</v>
+      </c>
+      <c r="R35" s="16">
+        <v>1.3268E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -1986,10 +2212,30 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1.2004000000000001E-2</v>
+      </c>
+      <c r="O36" s="16">
+        <v>8.9280000000000002E-3</v>
+      </c>
+      <c r="P36" s="16">
+        <v>5.9040000000000004E-3</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>5.9959999999999996E-3</v>
+      </c>
+      <c r="R36" s="16">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -1998,25 +2244,50 @@
         <v>4.6887999999999999E-2</v>
       </c>
       <c r="E37" s="19">
-        <f t="shared" ref="E37:H37" si="2">E35+E36</f>
+        <f t="shared" ref="E37:H37" si="4">E35+E36</f>
         <v>3.1283999999999999E-2</v>
       </c>
       <c r="F37" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1492000000000001E-2</v>
       </c>
       <c r="G37" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0060000000000001E-2</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="19">
+        <f>N35+N36</f>
+        <v>4.7132E-2</v>
+      </c>
+      <c r="O37" s="19">
+        <f t="shared" ref="O37:R37" si="5">O35+O36</f>
+        <v>3.1643999999999999E-2</v>
+      </c>
+      <c r="P37" s="19">
+        <f t="shared" si="5"/>
+        <v>2.1932E-2</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="5"/>
+        <v>2.052E-2</v>
+      </c>
+      <c r="R37" s="19">
+        <f t="shared" si="5"/>
+        <v>1.8467999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2035,10 +2306,31 @@
       <c r="H38" s="16">
         <v>5.5975999999999998E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0.102136</v>
+      </c>
+      <c r="O38" s="16">
+        <v>9.1095999999999996E-2</v>
+      </c>
+      <c r="P38" s="16">
+        <v>8.6596000000000006E-2</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>8.3428000000000002E-2</v>
+      </c>
+      <c r="R38" s="16">
+        <v>5.7507999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2057,10 +2349,30 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="16">
+        <v>3.5228000000000002E-2</v>
+      </c>
+      <c r="O39" s="16">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="P39" s="16">
+        <v>3.4556000000000003E-2</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>3.4812000000000003E-2</v>
+      </c>
+      <c r="R39" s="16">
+        <v>2.3768000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2069,27 +2381,52 @@
         <v>0.13631199999999999</v>
       </c>
       <c r="E40" s="19">
-        <f t="shared" ref="E40:H40" si="3">E38+E39</f>
+        <f t="shared" ref="E40:H40" si="6">E38+E39</f>
         <v>0.12464</v>
       </c>
       <c r="F40" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11977600000000001</v>
       </c>
       <c r="G40" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11646000000000001</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="19">
+        <f>N38+N39</f>
+        <v>0.13736400000000001</v>
+      </c>
+      <c r="O40" s="19">
+        <f t="shared" ref="O40:R40" si="7">O38+O39</f>
+        <v>0.125776</v>
+      </c>
+      <c r="P40" s="19">
+        <f t="shared" si="7"/>
+        <v>0.12115200000000001</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="7"/>
+        <v>0.11824000000000001</v>
+      </c>
+      <c r="R40" s="19">
+        <f t="shared" si="7"/>
+        <v>8.1276000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
         <v>1280</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2106,10 +2443,33 @@
         <v>1.84E-2</v>
       </c>
       <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="39">
+        <v>1280</v>
+      </c>
+      <c r="L41" s="40"/>
+      <c r="M41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4">
+        <v>4.5724000000000001E-2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>2.9187999999999999E-2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>2.0747999999999999E-2</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1.8967999999999999E-2</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1.6336E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2126,10 +2486,30 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.558E-2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1.1552E-2</v>
+      </c>
+      <c r="P42" s="4">
+        <v>9.3480000000000004E-3</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>9.476E-3</v>
+      </c>
+      <c r="R42" s="4">
+        <v>6.6160000000000004E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2138,22 +2518,47 @@
         <v>6.0988000000000001E-2</v>
       </c>
       <c r="E43" s="19">
-        <f t="shared" ref="E43:G43" si="4">E41+E42</f>
+        <f t="shared" ref="E43:G43" si="8">E41+E42</f>
         <v>4.0292000000000001E-2</v>
       </c>
       <c r="F43" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9555999999999999E-2</v>
       </c>
       <c r="G43" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="19">
+        <f>N41+N42</f>
+        <v>6.1303999999999997E-2</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" ref="O43:R43" si="9">O41+O42</f>
+        <v>4.0739999999999998E-2</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="9"/>
+        <v>3.0095999999999998E-2</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="9"/>
+        <v>2.8443999999999997E-2</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" si="9"/>
+        <v>2.2952E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2170,10 +2575,31 @@
         <v>0.10284799999999999</v>
       </c>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.13236000000000001</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0.11812400000000001</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0.113096</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0.105112</v>
+      </c>
+      <c r="R44" s="4">
+        <v>6.1443999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2190,10 +2616,30 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="4">
+        <v>4.5443999999999998E-2</v>
+      </c>
+      <c r="O45" s="4">
+        <v>4.4943999999999998E-2</v>
+      </c>
+      <c r="P45" s="4">
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>4.3580000000000001E-2</v>
+      </c>
+      <c r="R45" s="4">
+        <v>2.5876E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2202,24 +2648,49 @@
         <v>0.16677999999999998</v>
       </c>
       <c r="E46" s="19">
-        <f t="shared" ref="E46:G46" si="5">E44+E45</f>
+        <f t="shared" ref="E46:G46" si="10">E44+E45</f>
         <v>0.14468</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.1249</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="K46" s="43"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="19">
+        <f>N44+N45</f>
+        <v>0.17780400000000002</v>
+      </c>
+      <c r="O46" s="19">
+        <f t="shared" ref="O46:R46" si="11">O44+O45</f>
+        <v>0.16306799999999999</v>
+      </c>
+      <c r="P46" s="19">
+        <f t="shared" si="11"/>
+        <v>0.157944</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="11"/>
+        <v>0.14869199999999999</v>
+      </c>
+      <c r="R46" s="19">
+        <f t="shared" si="11"/>
+        <v>8.7319999999999995E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="45">
         <v>1345</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2236,10 +2707,33 @@
         <v>1.9E-2</v>
       </c>
       <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="45">
+        <v>1345</v>
+      </c>
+      <c r="L47" s="46"/>
+      <c r="M47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O47" s="7">
+        <v>3.0632E-2</v>
+      </c>
+      <c r="P47" s="7">
+        <v>2.1752000000000001E-2</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>1.9584000000000001E-2</v>
+      </c>
+      <c r="R47" s="5">
+        <v>1.6844000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2256,10 +2750,28 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1.6407999999999999E-2</v>
+      </c>
+      <c r="O48" s="7">
+        <v>1.2156E-2</v>
+      </c>
+      <c r="P48" s="7">
+        <v>9.8840000000000004E-3</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>9.9319999999999999E-3</v>
+      </c>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2268,22 +2780,44 @@
         <v>6.4096E-2</v>
       </c>
       <c r="E49" s="19">
-        <f t="shared" ref="E49:G49" si="6">E47+E48</f>
+        <f t="shared" ref="E49:G49" si="12">E47+E48</f>
         <v>4.2319999999999997E-2</v>
       </c>
       <c r="F49" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.1071999999999999E-2</v>
       </c>
       <c r="G49" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="19">
+        <f>N47+N48</f>
+        <v>6.4407999999999993E-2</v>
+      </c>
+      <c r="O49" s="19">
+        <f t="shared" ref="O49:Q49" si="13">O47+O48</f>
+        <v>4.2788E-2</v>
+      </c>
+      <c r="P49" s="19">
+        <f t="shared" si="13"/>
+        <v>3.1635999999999997E-2</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="13"/>
+        <v>2.9516000000000001E-2</v>
+      </c>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2300,10 +2834,29 @@
         <v>0.10877199999999999</v>
       </c>
       <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0.138604</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0.124512</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0.11898</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0.11114</v>
+      </c>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2320,10 +2873,28 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="7">
+        <v>4.7668000000000002E-2</v>
+      </c>
+      <c r="O51" s="7">
+        <v>4.7224000000000002E-2</v>
+      </c>
+      <c r="P51" s="7">
+        <v>4.7156000000000003E-2</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>4.5887999999999998E-2</v>
+      </c>
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2332,31 +2903,45 @@
         <v>0.15494000000000002</v>
       </c>
       <c r="E52" s="19">
-        <f t="shared" ref="E52:G52" si="7">E50+E51</f>
+        <f t="shared" ref="E52:G52" si="14">E50+E51</f>
         <v>0.13190000000000002</v>
       </c>
       <c r="F52" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.10985200000000001</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="19">
+        <f>N50+N51</f>
+        <v>0.18627199999999999</v>
+      </c>
+      <c r="O52" s="19">
+        <f t="shared" ref="O52:Q52" si="15">O50+O51</f>
+        <v>0.171736</v>
+      </c>
+      <c r="P52" s="19">
+        <f t="shared" si="15"/>
+        <v>0.16613600000000001</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="15"/>
+        <v>0.157028</v>
+      </c>
+      <c r="R52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="K14:L18"/>
-    <mergeCell ref="K19:L23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A41:B46"/>
+  <mergeCells count="23">
+    <mergeCell ref="K47:L52"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
     <mergeCell ref="A4:B8"/>
     <mergeCell ref="A9:B13"/>
@@ -2364,6 +2949,20 @@
     <mergeCell ref="A19:B23"/>
     <mergeCell ref="A29:B34"/>
     <mergeCell ref="A35:B40"/>
+    <mergeCell ref="K14:L18"/>
+    <mergeCell ref="K19:L23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A41:B46"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L34"/>
+    <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB9DCF34-23EF-42DA-8C9D-15F6138B3F4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{939AAF53-1464-4B15-98CF-261A14012E9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Besar data" sheetId="1" r:id="rId1"/>
+    <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
+    <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="53">
   <si>
     <t>0 x</t>
   </si>
@@ -149,6 +150,36 @@
   </si>
   <si>
     <t>0x</t>
+  </si>
+  <si>
+    <t>HS(5,3)</t>
+  </si>
+  <si>
+    <t>HS(6,3)</t>
+  </si>
+  <si>
+    <t>HS(6,4)</t>
+  </si>
+  <si>
+    <t>HS(7,3)</t>
+  </si>
+  <si>
+    <t>HS(7,4)</t>
+  </si>
+  <si>
+    <t>HS(8,3)</t>
+  </si>
+  <si>
+    <t>HS(8,4)</t>
+  </si>
+  <si>
+    <t>HS(8,5)</t>
+  </si>
+  <si>
+    <t>HS(8,7)</t>
+  </si>
+  <si>
+    <t>HS(7,6)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -429,14 +466,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,31 +545,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,6 +563,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -800,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,36 +860,45 @@
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -862,10 +915,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -884,10 +937,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="33">
         <v>584</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -906,10 +959,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="33">
         <v>584</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -930,8 +983,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -950,8 +1003,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -972,8 +1025,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -997,8 +1050,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1024,8 +1077,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1044,8 +1097,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1066,8 +1119,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1091,8 +1144,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1118,10 +1171,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="39">
         <v>980</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1140,10 +1193,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="39">
         <v>980</v>
       </c>
-      <c r="L9" s="34"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1164,8 +1217,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1184,8 +1237,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1206,8 +1259,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1231,8 +1284,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1258,8 +1311,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1278,8 +1331,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1300,8 +1353,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1325,8 +1378,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1352,10 +1405,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="45">
         <v>1280</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1374,10 +1427,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="45">
         <v>1280</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1398,8 +1451,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1416,8 +1469,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1438,8 +1491,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1463,8 +1516,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1490,8 +1543,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1508,8 +1561,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1583,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1555,8 +1608,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1582,10 +1635,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="26">
         <v>1345</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1604,10 +1657,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="26">
         <v>1345</v>
       </c>
-      <c r="L19" s="46"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1628,8 +1681,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1646,8 +1699,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1668,8 +1721,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1690,8 +1743,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1717,8 +1770,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1735,8 +1788,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1755,8 +1808,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1777,8 +1830,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1801,34 +1854,34 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="53">
+      <c r="K24" s="32">
         <v>1640</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="51" t="s">
+      <c r="L24" s="32"/>
+      <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="52" t="s">
+      <c r="N24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="P24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="52" t="s">
+      <c r="R24" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1845,10 +1898,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="26"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -1867,10 +1920,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="33">
         <v>584</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1889,11 +1942,11 @@
       <c r="H29" s="1">
         <v>8.1119999999999994E-3</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="27">
+      <c r="J29" s="24"/>
+      <c r="K29" s="33">
         <v>584</v>
       </c>
-      <c r="L29" s="28"/>
+      <c r="L29" s="34"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1914,8 +1967,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1987,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1956,8 +2009,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -1981,8 +2034,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2008,8 +2061,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2028,9 +2081,9 @@
       <c r="H32" s="1">
         <v>4.0691999999999999E-2</v>
       </c>
-      <c r="J32" s="51"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,8 +2104,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2071,8 +2124,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2093,8 +2146,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2171,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2145,10 +2198,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="39">
         <v>980</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2167,11 +2220,11 @@
       <c r="H35" s="16">
         <v>1.2716E-2</v>
       </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="33">
+      <c r="J35" s="24"/>
+      <c r="K35" s="39">
         <v>980</v>
       </c>
-      <c r="L35" s="34"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2192,8 +2245,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2212,8 +2265,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2234,8 +2287,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2259,8 +2312,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2286,8 +2339,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2306,9 +2359,9 @@
       <c r="H38" s="16">
         <v>5.5975999999999998E-2</v>
       </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2382,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2349,8 +2402,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2371,8 +2424,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2396,8 +2449,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2423,10 +2476,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="45">
         <v>1280</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2443,11 +2496,11 @@
         <v>1.84E-2</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="39">
+      <c r="J41" s="24"/>
+      <c r="K41" s="45">
         <v>1280</v>
       </c>
-      <c r="L41" s="40"/>
+      <c r="L41" s="46"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2468,8 +2521,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2486,8 +2539,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2561,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2530,8 +2583,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="42"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2557,8 +2610,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2575,9 +2628,9 @@
         <v>0.10284799999999999</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="48"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2651,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2616,8 +2669,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2638,8 +2691,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2660,8 +2713,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="44"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="50"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2687,10 +2740,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="A47" s="26">
         <v>1345</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2707,11 +2760,11 @@
         <v>1.9E-2</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="45">
+      <c r="J47" s="24"/>
+      <c r="K47" s="26">
         <v>1345</v>
       </c>
-      <c r="L47" s="46"/>
+      <c r="L47" s="27"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2732,8 +2785,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2750,8 +2803,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="48"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2770,8 +2823,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +2845,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="48"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2816,8 +2869,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2834,9 +2887,9 @@
         <v>0.10877199999999999</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="48"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2855,8 +2908,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2873,8 +2926,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="48"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2893,8 +2946,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2915,8 +2968,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="50"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2940,6 +2993,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A41:B46"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L34"/>
+    <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -2951,20 +3016,2098 @@
     <mergeCell ref="A35:B40"/>
     <mergeCell ref="K14:L18"/>
     <mergeCell ref="K19:L23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A41:B46"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L34"/>
-    <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE648EA8-B30A-40FD-8211-0DEB83AA1C66}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>584</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1">
+        <v>103</v>
+      </c>
+      <c r="K4" s="1">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1">
+        <v>112</v>
+      </c>
+      <c r="O4" s="1">
+        <v>63</v>
+      </c>
+      <c r="P4" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <f>($A$3-D4)/$A$3</f>
+        <v>0.86986301369863017</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:K5" si="0">($A$3-E4)/$A$3</f>
+        <v>0.85445205479452058</v>
+      </c>
+      <c r="F5" s="2">
+        <f>($A$3-F4)/$A$3</f>
+        <v>0.91609589041095896</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83904109589041098</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90753424657534243</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94691780821917804</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82363013698630139</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90068493150684936</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:M5" si="1">($A$3-L4)/$A$3</f>
+        <v>0.94178082191780821</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96575342465753422</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5" si="2">($A$3-N4)/$A$3</f>
+        <v>0.80821917808219179</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5" si="3">($A$3-O4)/$A$3</f>
+        <v>0.89212328767123283</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5" si="4">($A$3-P4)/$A$3</f>
+        <v>0.93835616438356162</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5" si="5">($A$3-Q4)/$A$3</f>
+        <v>0.96404109589041098</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5" si="6">($A$3-R4)/$A$3</f>
+        <v>0.97773972602739723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>569</v>
+      </c>
+      <c r="E6" s="1">
+        <v>533</v>
+      </c>
+      <c r="F6" s="1">
+        <v>537</v>
+      </c>
+      <c r="G6" s="1">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1">
+        <v>515</v>
+      </c>
+      <c r="I6" s="1">
+        <v>523</v>
+      </c>
+      <c r="J6" s="1">
+        <v>500</v>
+      </c>
+      <c r="K6" s="1">
+        <v>507</v>
+      </c>
+      <c r="L6" s="1">
+        <v>518</v>
+      </c>
+      <c r="M6" s="1">
+        <v>529</v>
+      </c>
+      <c r="N6" s="1">
+        <v>423</v>
+      </c>
+      <c r="O6" s="1">
+        <v>419</v>
+      </c>
+      <c r="P6" s="1">
+        <v>422</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>427</v>
+      </c>
+      <c r="R6" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <f>($A$3-D6)/$A$3</f>
+        <v>2.5684931506849314E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:R7" si="7">($A$3-E6)/$A$3</f>
+        <v>8.7328767123287673E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="7"/>
+        <v>8.0479452054794523E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.12671232876712329</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11815068493150685</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10445205479452055</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14383561643835616</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13184931506849315</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="7"/>
+        <v>9.4178082191780824E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27568493150684931</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28253424657534248</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2773972602739726</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26883561643835618</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2363013698630137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>980</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16">
+        <v>126</v>
+      </c>
+      <c r="E9" s="16">
+        <v>141</v>
+      </c>
+      <c r="F9" s="16">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <v>156</v>
+      </c>
+      <c r="H9" s="16">
+        <v>88</v>
+      </c>
+      <c r="I9" s="16">
+        <v>49</v>
+      </c>
+      <c r="J9" s="16">
+        <v>172</v>
+      </c>
+      <c r="K9" s="16">
+        <v>96</v>
+      </c>
+      <c r="L9" s="16">
+        <v>53</v>
+      </c>
+      <c r="M9" s="16">
+        <v>31</v>
+      </c>
+      <c r="N9" s="16">
+        <v>187</v>
+      </c>
+      <c r="O9" s="16">
+        <v>103</v>
+      </c>
+      <c r="P9" s="16">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>33</v>
+      </c>
+      <c r="R9" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="18">
+        <f>($A$8-D9)/$A$8</f>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" ref="E10:R10" si="8">($A$8-E9)/$A$8</f>
+        <v>0.85612244897959189</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.84081632653061222</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.91020408163265309</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.82448979591836735</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.90204081632653066</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.94591836734693879</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96836734693877546</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.8091836734693878</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.89489795918367343</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.94183673469387752</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96632653061224494</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.98061224489795917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16">
+        <v>947</v>
+      </c>
+      <c r="E11" s="16">
+        <v>908</v>
+      </c>
+      <c r="F11" s="16">
+        <v>917</v>
+      </c>
+      <c r="G11" s="16">
+        <v>884</v>
+      </c>
+      <c r="H11" s="16">
+        <v>893</v>
+      </c>
+      <c r="I11" s="16">
+        <v>905</v>
+      </c>
+      <c r="J11" s="16">
+        <v>867</v>
+      </c>
+      <c r="K11" s="16">
+        <v>880</v>
+      </c>
+      <c r="L11" s="16">
+        <v>895</v>
+      </c>
+      <c r="M11" s="16">
+        <v>912</v>
+      </c>
+      <c r="N11" s="16">
+        <v>600</v>
+      </c>
+      <c r="O11" s="16">
+        <v>574</v>
+      </c>
+      <c r="P11" s="16">
+        <v>565</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>564</v>
+      </c>
+      <c r="R11" s="16">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="18">
+        <f>($A$8-D11)/$A$8</f>
+        <v>3.3673469387755103E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" ref="E12:R12" si="9">($A$8-E11)/$A$8</f>
+        <v>7.3469387755102047E-2</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="9"/>
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="9"/>
+        <v>9.7959183673469383E-2</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="9"/>
+        <v>8.8775510204081629E-2</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="9"/>
+        <v>7.6530612244897961E-2</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.11530612244897959</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="9"/>
+        <v>8.673469387755102E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" si="9"/>
+        <v>6.9387755102040816E-2</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.38775510204081631</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.42346938775510207</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.42448979591836733</v>
+      </c>
+      <c r="R12" s="18">
+        <f t="shared" si="9"/>
+        <v>0.40714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>1280</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4">
+        <v>163</v>
+      </c>
+      <c r="E14" s="4">
+        <v>183</v>
+      </c>
+      <c r="F14" s="22">
+        <v>103</v>
+      </c>
+      <c r="G14" s="22">
+        <v>203</v>
+      </c>
+      <c r="H14" s="22">
+        <v>113</v>
+      </c>
+      <c r="I14" s="22">
+        <v>63</v>
+      </c>
+      <c r="J14" s="22">
+        <v>223</v>
+      </c>
+      <c r="K14" s="22">
+        <v>123</v>
+      </c>
+      <c r="L14" s="4">
+        <v>68</v>
+      </c>
+      <c r="M14" s="4">
+        <v>38</v>
+      </c>
+      <c r="N14" s="4">
+        <v>243</v>
+      </c>
+      <c r="O14" s="4">
+        <v>133</v>
+      </c>
+      <c r="P14" s="4">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>40</v>
+      </c>
+      <c r="R14" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6">
+        <f>($A$13-D14)/$A$13</f>
+        <v>0.87265625000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15:R15" si="10">($A$13-E14)/$A$13</f>
+        <v>0.85703125000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.91953125000000002</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.84140625000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.91171875000000002</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.95078125000000002</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.82578125000000002</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.90390625000000002</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.94687500000000002</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.97031250000000002</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.81015625000000002</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.89609375000000002</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.94296875000000002</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.96875</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="10"/>
+        <v>0.98203125000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1223</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1183</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1193</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1156</v>
+      </c>
+      <c r="H16" s="22">
+        <v>167</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1181</v>
+      </c>
+      <c r="J16" s="22">
+        <v>1096</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1105</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1120</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1138</v>
+      </c>
+      <c r="N16" s="4">
+        <v>660</v>
+      </c>
+      <c r="O16" s="4">
+        <v>610</v>
+      </c>
+      <c r="P16" s="4">
+        <v>587</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>579</v>
+      </c>
+      <c r="R16" s="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6">
+        <f>($A$13-D16)/$A$13</f>
+        <v>4.4531250000000001E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17:R17" si="11">($A$13-E16)/$A$13</f>
+        <v>7.5781249999999994E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="11"/>
+        <v>6.7968749999999994E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="11"/>
+        <v>9.6875000000000003E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.86953124999999998</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="11"/>
+        <v>7.7343750000000003E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.13671875</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.11093749999999999</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.484375</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.5234375</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.54140624999999998</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.54765624999999996</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53671875000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>1345</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171</v>
+      </c>
+      <c r="E19" s="7">
+        <v>192</v>
+      </c>
+      <c r="F19" s="7">
+        <v>108</v>
+      </c>
+      <c r="G19" s="7">
+        <v>213</v>
+      </c>
+      <c r="H19" s="7">
+        <v>118</v>
+      </c>
+      <c r="I19" s="7">
+        <v>66</v>
+      </c>
+      <c r="J19" s="7">
+        <v>234</v>
+      </c>
+      <c r="K19" s="7">
+        <v>129</v>
+      </c>
+      <c r="L19" s="7">
+        <v>71</v>
+      </c>
+      <c r="M19" s="7">
+        <v>39</v>
+      </c>
+      <c r="N19" s="7">
+        <v>225</v>
+      </c>
+      <c r="O19" s="7">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>42</v>
+      </c>
+      <c r="R19" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8">
+        <f>($A$18-D19)/$A$18</f>
+        <v>0.87286245353159853</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E20:R20" si="12">($A$18-E19)/$A$18</f>
+        <v>0.85724907063197031</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.91970260223048328</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.84163568773234199</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.91226765799256504</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.95092936802973982</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.82602230483271377</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.90408921933085507</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.9472118959107807</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.971003717472119</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.83271375464684017</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.89665427509293683</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.94349442379182158</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.96877323420074346</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.98141263940520451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1244</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1254</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1217</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1228</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1243</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1157</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1167</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1182</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1201</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8">
+        <f>($A$18-D21)/$A$18</f>
+        <v>4.6840148698884761E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:P22" si="13">($A$18-E21)/$A$18</f>
+        <v>7.5092936802973978E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="13"/>
+        <v>6.7657992565055766E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="13"/>
+        <v>9.5167286245353158E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="13"/>
+        <v>8.6988847583643128E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="13"/>
+        <v>7.5836431226765796E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.13977695167286244</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.13234200743494423</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.12118959107806691</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.10706319702602231</v>
+      </c>
+      <c r="N22" s="55">
+        <f>($A$18-N21)/$A$18</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="55">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="55">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>1640</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>584</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1028000000000002E-2</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>1.3664000000000001E-2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>1.0004000000000001E-2</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <v>8.5039999999999994E-3</v>
+      </c>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.2519999999999998E-3</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>4.5640000000000003E-3</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>3.6480000000000002E-3</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <v>3.7160000000000001E-3</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <v>3.248E-3</v>
+      </c>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="19">
+        <f>D29+D30</f>
+        <v>2.828E-2</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19">
+        <f>F29+F30</f>
+        <v>1.8228000000000001E-2</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19">
+        <f t="shared" ref="I31:Q31" si="14">I29+I30</f>
+        <v>1.3652000000000001E-2</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.2876E-2</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.1751999999999999E-2</v>
+      </c>
+      <c r="R31" s="19"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6.1112E-2</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
+        <v>5.3887999999999998E-2</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>5.2519999999999997E-2</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <v>4.8807999999999997E-2</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
+        <v>4.1744000000000003E-2</v>
+      </c>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.1187999999999999E-2</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
+        <v>2.0572E-2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
+        <v>1.7328E-2</v>
+      </c>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D32+D33</f>
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19">
+        <f t="shared" ref="F34:Q34" si="15">F32+F33</f>
+        <v>7.4459999999999998E-2</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
+        <f t="shared" si="15"/>
+        <v>7.2819999999999996E-2</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19">
+        <f t="shared" si="15"/>
+        <v>6.9307999999999995E-2</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19">
+        <f t="shared" si="15"/>
+        <v>5.9072E-2</v>
+      </c>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>980</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="16">
+        <v>3.5128E-2</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16">
+        <v>2.2716E-2</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <v>1.6028000000000001E-2</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16">
+        <v>1.4524E-2</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16">
+        <v>1.3268E-2</v>
+      </c>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1.2004000000000001E-2</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16">
+        <v>8.9280000000000002E-3</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16">
+        <v>5.9040000000000004E-3</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16">
+        <v>5.9959999999999996E-3</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19">
+        <f>D35+D36</f>
+        <v>4.7132E-2</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
+        <f t="shared" ref="F37:Q37" si="16">F35+F36</f>
+        <v>3.1643999999999999E-2</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19">
+        <f t="shared" si="16"/>
+        <v>2.1932E-2</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <f t="shared" si="16"/>
+        <v>2.052E-2</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19">
+        <f t="shared" si="16"/>
+        <v>1.8467999999999998E-2</v>
+      </c>
+      <c r="R37" s="19"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.102136</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16">
+        <v>9.1095999999999996E-2</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16">
+        <v>8.6596000000000006E-2</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16">
+        <v>8.3428000000000002E-2</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16">
+        <v>5.7507999999999997E-2</v>
+      </c>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="16">
+        <v>3.5228000000000002E-2</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16">
+        <v>3.4556000000000003E-2</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16">
+        <v>3.4812000000000003E-2</v>
+      </c>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16">
+        <v>2.3768000000000001E-2</v>
+      </c>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="19">
+        <f>D38+D39</f>
+        <v>0.13736400000000001</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19">
+        <f t="shared" ref="F40:Q40" si="17">F38+F39</f>
+        <v>0.125776</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.12115200000000001</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.11824000000000001</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19">
+        <f t="shared" si="17"/>
+        <v>8.1276000000000001E-2</v>
+      </c>
+      <c r="R40" s="19"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="45">
+        <v>1280</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.5724000000000001E-2</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
+        <v>2.9187999999999999E-2</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>2.0747999999999999E-2</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
+        <v>1.8967999999999999E-2</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
+        <v>1.6336E-2</v>
+      </c>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1.558E-2</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
+        <v>1.1552E-2</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <v>9.3480000000000004E-3</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
+        <v>9.476E-3</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <v>6.6160000000000004E-3</v>
+      </c>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="19">
+        <f>D41+D42</f>
+        <v>6.1303999999999997E-2</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19">
+        <f t="shared" ref="F43:Q43" si="18">F41+F42</f>
+        <v>4.0739999999999998E-2</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19">
+        <f t="shared" si="18"/>
+        <v>3.0095999999999998E-2</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19">
+        <f t="shared" si="18"/>
+        <v>2.8443999999999997E-2</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19">
+        <f t="shared" si="18"/>
+        <v>2.2952E-2</v>
+      </c>
+      <c r="R43" s="19"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.13236000000000001</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <v>0.11812400000000001</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <v>0.113096</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <v>0.105112</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <v>6.1443999999999999E-2</v>
+      </c>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4.5443999999999998E-2</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <v>4.4943999999999998E-2</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4">
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
+        <v>4.3580000000000001E-2</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4">
+        <v>2.5876E-2</v>
+      </c>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="19">
+        <f>D44+D45</f>
+        <v>0.17780400000000002</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19">
+        <f t="shared" ref="F46:Q46" si="19">F44+F45</f>
+        <v>0.16306799999999999</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.157944</v>
+      </c>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.14869199999999999</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19">
+        <f t="shared" si="19"/>
+        <v>8.7319999999999995E-2</v>
+      </c>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <v>1345</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
+        <v>3.0632E-2</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7">
+        <v>2.1752000000000001E-2</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <v>1.9584000000000001E-2</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="5">
+        <v>1.6844000000000001E-2</v>
+      </c>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1.6407999999999999E-2</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
+        <v>1.2156E-2</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7">
+        <v>9.8840000000000004E-3</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <v>9.9319999999999999E-3</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="19">
+        <f>D47+D48</f>
+        <v>6.4407999999999993E-2</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19">
+        <f t="shared" ref="F49:L49" si="20">F47+F48</f>
+        <v>4.2788E-2</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19">
+        <f t="shared" si="20"/>
+        <v>3.1635999999999997E-2</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19">
+        <f t="shared" si="20"/>
+        <v>2.9516000000000001E-2</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.138604</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7">
+        <v>0.124512</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7">
+        <v>0.11898</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
+        <v>0.11114</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="7">
+        <v>4.7668000000000002E-2</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7">
+        <v>4.7224000000000002E-2</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7">
+        <v>4.7156000000000003E-2</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <v>4.5887999999999998E-2</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="19">
+        <f>D50+D51</f>
+        <v>0.18627199999999999</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19">
+        <f t="shared" ref="F52:L52" si="21">F50+F51</f>
+        <v>0.171736</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.16613600000000001</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.157028</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A47:B52"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B34"/>
+    <mergeCell ref="A35:B40"/>
+    <mergeCell ref="A41:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="A8:B12"/>
+    <mergeCell ref="A13:B17"/>
+    <mergeCell ref="A18:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{939AAF53-1464-4B15-98CF-261A14012E9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{657EF875-CA15-4F4D-94A6-9869D0ABF953}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,26 +470,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,17 +535,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,32 +873,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="K2" s="53" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -915,10 +915,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="52"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -937,10 +937,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>584</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -959,10 +959,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <v>584</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -983,8 +983,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1003,8 +1003,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1025,8 +1025,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1050,8 +1050,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1077,8 +1077,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1097,8 +1097,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1119,8 +1119,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1144,8 +1144,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1171,10 +1171,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="37">
         <v>980</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1193,10 +1193,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>980</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1217,8 +1217,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1237,8 +1237,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1259,8 +1259,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1284,8 +1284,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1311,8 +1311,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1353,8 +1353,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1378,8 +1378,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1405,10 +1405,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="43">
         <v>1280</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1427,10 +1427,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="43">
         <v>1280</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1451,8 +1451,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1469,8 +1469,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1491,8 +1491,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1516,8 +1516,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1543,8 +1543,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1561,8 +1561,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1583,8 +1583,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1608,8 +1608,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1635,10 +1635,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="49">
         <v>1345</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1657,10 +1657,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="49">
         <v>1345</v>
       </c>
-      <c r="L19" s="27"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1681,8 +1681,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1699,8 +1699,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1721,8 +1721,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1743,8 +1743,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1770,8 +1770,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1788,8 +1788,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1808,8 +1808,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1830,8 +1830,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1854,10 +1854,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="32">
+      <c r="K24" s="55">
         <v>1640</v>
       </c>
-      <c r="L24" s="32"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -1878,10 +1878,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1898,10 +1898,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="52"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -1920,10 +1920,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="31">
         <v>584</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,10 +1943,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="33">
+      <c r="K29" s="31">
         <v>584</v>
       </c>
-      <c r="L29" s="34"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1967,8 +1967,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +1987,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2009,8 +2009,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2034,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2061,8 +2061,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2082,8 +2082,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2124,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2171,8 +2171,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2198,10 +2198,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="37">
         <v>980</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2221,10 +2221,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="39">
+      <c r="K35" s="37">
         <v>980</v>
       </c>
-      <c r="L35" s="40"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2245,8 +2245,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2265,8 +2265,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2287,8 +2287,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2312,8 +2312,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2339,8 +2339,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2360,8 +2360,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="40"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2402,8 +2402,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2424,8 +2424,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2449,8 +2449,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="43"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2476,10 +2476,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
+      <c r="A41" s="43">
         <v>1280</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2497,10 +2497,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="45">
+      <c r="K41" s="43">
         <v>1280</v>
       </c>
-      <c r="L41" s="46"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2521,8 +2521,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2539,8 +2539,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="48"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2561,8 +2561,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2583,8 +2583,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2610,8 +2610,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2629,8 +2629,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2651,8 +2651,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2669,8 +2669,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="46"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2691,8 +2691,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2713,8 +2713,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="48"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2740,10 +2740,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
+      <c r="A47" s="49">
         <v>1345</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2761,10 +2761,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="26">
+      <c r="K47" s="49">
         <v>1345</v>
       </c>
-      <c r="L47" s="27"/>
+      <c r="L47" s="50"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2785,8 +2785,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2803,8 +2803,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="29"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2823,8 +2823,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2845,8 +2845,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="29"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2869,8 +2869,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2888,8 +2888,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="29"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2908,8 +2908,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2926,8 +2926,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="29"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2968,8 +2968,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2993,18 +2993,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A41:B46"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L34"/>
-    <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3016,6 +3004,18 @@
     <mergeCell ref="A35:B40"/>
     <mergeCell ref="K14:L18"/>
     <mergeCell ref="K19:L23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A41:B46"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L34"/>
+    <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE648EA8-B30A-40FD-8211-0DEB83AA1C66}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,32 +3050,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3124,10 +3124,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>584</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3158,8 +3158,8 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3210,8 +3210,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3277,8 +3277,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3329,8 +3329,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3396,10 +3396,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="37">
         <v>980</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3430,8 +3430,8 @@
       <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3482,8 +3482,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3549,8 +3549,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3601,8 +3601,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -3668,10 +3668,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <v>1280</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3702,8 +3702,8 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3754,8 +3754,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3821,8 +3821,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3873,8 +3873,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -3940,10 +3940,10 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="49">
         <v>1345</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -3982,8 +3982,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4034,8 +4034,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4101,8 +4101,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4136,15 +4136,15 @@
       <c r="M21" s="7">
         <v>1201</v>
       </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4188,26 +4188,26 @@
         <f t="shared" si="13"/>
         <v>0.10706319702602231</v>
       </c>
-      <c r="N22" s="55">
+      <c r="N22" s="27">
         <f>($A$18-N21)/$A$18</f>
         <v>1</v>
       </c>
-      <c r="O22" s="55">
+      <c r="O22" s="27">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P22" s="55">
+      <c r="P22" s="27">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="55">
         <v>1640</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24" t="s">
         <v>30</v>
       </c>
@@ -4238,10 +4238,10 @@
       <c r="R23" s="25"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4290,42 +4290,62 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="31">
         <v>584</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>2.1028000000000002E-2</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>1.7195999999999999E-2</v>
+      </c>
       <c r="F29" s="1">
         <v>1.3664000000000001E-2</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1">
+        <v>1.5587999999999999E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
       <c r="I29" s="1">
         <v>1.0004000000000001E-2</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1">
+        <v>1.5011999999999999E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.1136E-2</v>
+      </c>
       <c r="L29" s="1">
         <v>9.1599999999999997E-3</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="M29" s="1">
+        <v>8.7279999999999996E-3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.5744000000000001E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.1552E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>9.4400000000000005E-3</v>
+      </c>
       <c r="Q29" s="1">
         <v>8.5039999999999994E-3</v>
       </c>
-      <c r="R29" s="1"/>
+      <c r="R29" s="1">
+        <v>8.0800000000000004E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4356,8 +4376,8 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4393,40 +4413,60 @@
       <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="1">
         <v>6.1112E-2</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>4.9868000000000003E-2</v>
+      </c>
       <c r="F32" s="1">
         <v>5.3887999999999998E-2</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1">
+        <v>4.7328000000000002E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4.7983999999999999E-2</v>
+      </c>
       <c r="I32" s="1">
         <v>5.2519999999999997E-2</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="1">
+        <v>47480</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4.8259999999999997E-2</v>
+      </c>
       <c r="L32" s="1">
         <v>4.8807999999999997E-2</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="M32" s="1">
+        <v>5.1184E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4.1284000000000001E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>4.1439999999999998E-2</v>
+      </c>
       <c r="Q32" s="1">
         <v>4.1744000000000003E-2</v>
       </c>
-      <c r="R32" s="1"/>
+      <c r="R32" s="1">
+        <v>4.5935999999999998E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4457,8 +4497,8 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4494,42 +4534,62 @@
       <c r="R34" s="19"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="37">
         <v>980</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="16">
         <v>3.5128E-2</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="16">
+        <v>2.8400000000000002E-2</v>
+      </c>
       <c r="F35" s="16">
         <v>2.2716E-2</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="16">
+        <v>2.5568E-2</v>
+      </c>
+      <c r="H35" s="16">
+        <v>1.932E-2</v>
+      </c>
       <c r="I35" s="16">
         <v>1.6028000000000001E-2</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="J35" s="16">
+        <v>2.4548E-2</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1.7964000000000001E-2</v>
+      </c>
       <c r="L35" s="16">
         <v>1.4524E-2</v>
       </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+      <c r="M35" s="16">
+        <v>1.3391999999999999E-2</v>
+      </c>
+      <c r="N35" s="16">
+        <v>2.4775999999999999E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <v>1.7624000000000001E-2</v>
+      </c>
+      <c r="P35" s="16">
+        <v>1.3996E-2</v>
+      </c>
       <c r="Q35" s="16">
         <v>1.3268E-2</v>
       </c>
-      <c r="R35" s="16"/>
+      <c r="R35" s="16">
+        <v>1.2456E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4560,8 +4620,8 @@
       <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4597,40 +4657,60 @@
       <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="16">
         <v>0.102136</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16">
+        <v>8.4159999999999999E-2</v>
+      </c>
       <c r="F38" s="16">
         <v>9.1095999999999996E-2</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="G38" s="16">
+        <v>7.9808000000000004E-2</v>
+      </c>
+      <c r="H38" s="16">
+        <v>8.1888000000000002E-2</v>
+      </c>
       <c r="I38" s="16">
         <v>8.6596000000000006E-2</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="J38" s="16">
+        <v>8.0944000000000002E-2</v>
+      </c>
+      <c r="K38" s="16">
+        <v>8.2072000000000006E-2</v>
+      </c>
       <c r="L38" s="16">
         <v>8.3428000000000002E-2</v>
       </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="M38" s="16">
+        <v>8.8356000000000004E-2</v>
+      </c>
+      <c r="N38" s="16">
+        <v>6.1004000000000003E-2</v>
+      </c>
+      <c r="O38" s="16">
+        <v>5.7644000000000001E-2</v>
+      </c>
+      <c r="P38" s="16">
+        <v>5.7751999999999998E-2</v>
+      </c>
       <c r="Q38" s="16">
         <v>5.7507999999999997E-2</v>
       </c>
-      <c r="R38" s="16"/>
+      <c r="R38" s="16">
+        <v>6.3119999999999996E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -4661,8 +4741,8 @@
       <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4698,42 +4778,62 @@
       <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
+      <c r="A41" s="43">
         <v>1280</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="4">
         <v>4.5724000000000001E-2</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4">
+        <v>3.7047999999999998E-2</v>
+      </c>
       <c r="F41" s="4">
         <v>2.9187999999999999E-2</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="4">
+        <v>3.3236000000000002E-2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2.5007999999999999E-2</v>
+      </c>
       <c r="I41" s="4">
         <v>2.0747999999999999E-2</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="J41" s="4">
+        <v>3.2039999999999999E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2.3415999999999999E-2</v>
+      </c>
       <c r="L41" s="4">
         <v>1.8967999999999999E-2</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="M41" s="4">
+        <v>1.6704E-2</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3.2548000000000001E-2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>2.3188E-2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1.8508E-2</v>
+      </c>
       <c r="Q41" s="4">
         <v>1.6336E-2</v>
       </c>
-      <c r="R41" s="4"/>
+      <c r="R41" s="4">
+        <v>1.5299999999999999E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4764,8 +4864,8 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4801,40 +4901,60 @@
       <c r="R43" s="19"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="4">
         <v>0.13236000000000001</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4">
+        <v>0.109384</v>
+      </c>
       <c r="F44" s="4">
         <v>0.11812400000000001</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4">
+        <v>0.104228</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.10616399999999999</v>
+      </c>
       <c r="I44" s="4">
         <v>0.113096</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="J44" s="4">
+        <v>0.102812</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.103452</v>
+      </c>
       <c r="L44" s="4">
         <v>0.105112</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="M44" s="4">
+        <v>0.111024</v>
+      </c>
+      <c r="N44" s="4">
+        <v>7.0571999999999996E-2</v>
+      </c>
+      <c r="O44" s="4">
+        <v>6.4336000000000004E-2</v>
+      </c>
+      <c r="P44" s="4">
+        <v>6.2216E-2</v>
+      </c>
       <c r="Q44" s="4">
         <v>6.1443999999999999E-2</v>
       </c>
-      <c r="R44" s="4"/>
+      <c r="R44" s="4">
+        <v>6.6844000000000001E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4865,8 +4985,8 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4902,42 +5022,62 @@
       <c r="R46" s="19"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
+      <c r="A47" s="49">
         <v>1345</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="7">
+        <v>3.8879999999999998E-2</v>
+      </c>
       <c r="F47" s="7">
         <v>3.0632E-2</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="7">
+        <v>3.4863999999999999E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2.622E-2</v>
+      </c>
       <c r="I47" s="7">
         <v>2.1752000000000001E-2</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="J47" s="7">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2.426E-2</v>
+      </c>
       <c r="L47" s="7">
         <v>1.9584000000000001E-2</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="M47" s="7">
+        <v>1.7176E-2</v>
+      </c>
+      <c r="N47" s="7">
+        <v>3.3868000000000002E-2</v>
+      </c>
+      <c r="O47" s="7">
+        <v>2.4052E-2</v>
+      </c>
+      <c r="P47" s="7">
+        <v>1.9103999999999999E-2</v>
+      </c>
       <c r="Q47" s="5">
         <v>1.6844000000000001E-2</v>
       </c>
-      <c r="R47" s="7"/>
+      <c r="R47" s="7">
+        <v>1.5807999999999999E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4966,8 +5106,8 @@
       <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5000,29 +5140,41 @@
       <c r="R49" s="19"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="7">
         <v>0.138604</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="7">
+        <v>1.1446400000000001E-2</v>
+      </c>
       <c r="F50" s="7">
         <v>0.124512</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="G50" s="7">
+        <v>0.109372</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.11142000000000001</v>
+      </c>
       <c r="I50" s="7">
         <v>0.11898</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="J50" s="7">
+        <v>0.108652</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.10859199999999999</v>
+      </c>
       <c r="L50" s="7">
         <v>0.11114</v>
       </c>
-      <c r="M50" s="7"/>
+      <c r="M50" s="7">
+        <v>0.11692</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -5030,8 +5182,8 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5060,8 +5212,8 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{657EF875-CA15-4F4D-94A6-9869D0ABF953}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F734753-7EA3-4542-BDE5-4C46DABBBA8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="59">
   <si>
     <t>0 x</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>HS(7,6)</t>
+  </si>
+  <si>
+    <t>catatan</t>
+  </si>
+  <si>
+    <t>HS(8,X) Cuma bisa satu kali jika data yg dikompress duluan adalah homogen</t>
+  </si>
+  <si>
+    <t>20x ++</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -289,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -418,12 +436,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,15 +500,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,26 +575,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -873,32 +910,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="K2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -915,10 +952,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -937,10 +974,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="34">
         <v>584</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -959,10 +996,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="34">
         <v>584</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -983,8 +1020,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1003,8 +1040,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1025,8 +1062,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1050,8 +1087,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1077,8 +1114,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1097,8 +1134,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1119,8 +1156,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1144,8 +1181,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1171,10 +1208,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="40">
         <v>980</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1193,10 +1230,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="40">
         <v>980</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1217,8 +1254,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1237,8 +1274,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1259,8 +1296,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1284,8 +1321,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1311,8 +1348,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1331,8 +1368,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1353,8 +1390,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1378,8 +1415,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1405,10 +1442,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="46">
         <v>1280</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1427,10 +1464,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="46">
         <v>1280</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1451,8 +1488,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1469,8 +1506,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1491,8 +1528,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1516,8 +1553,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1543,8 +1580,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1561,8 +1598,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1583,8 +1620,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1608,8 +1645,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1635,10 +1672,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="27">
         <v>1345</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1657,10 +1694,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="27">
         <v>1345</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1681,8 +1718,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1699,8 +1736,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1721,8 +1758,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1743,8 +1780,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1770,8 +1807,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1788,8 +1825,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1808,8 +1845,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1830,8 +1867,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1854,10 +1891,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="55">
+      <c r="K24" s="33">
         <v>1640</v>
       </c>
-      <c r="L24" s="55"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -1878,10 +1915,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1898,10 +1935,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="30"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -1920,10 +1957,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="A29" s="34">
         <v>584</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,10 +1980,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="31">
+      <c r="K29" s="34">
         <v>584</v>
       </c>
-      <c r="L29" s="32"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1967,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2024,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2009,8 +2046,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2071,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2061,8 +2098,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2082,8 +2119,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2104,8 +2141,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2161,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2146,8 +2183,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2171,8 +2208,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2198,10 +2235,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="40">
         <v>980</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2221,10 +2258,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="37">
+      <c r="K35" s="40">
         <v>980</v>
       </c>
-      <c r="L35" s="38"/>
+      <c r="L35" s="41"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2245,8 +2282,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2265,8 +2302,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2287,8 +2324,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2312,8 +2349,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2339,8 +2376,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2360,8 +2397,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2382,8 +2419,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2402,8 +2439,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2424,8 +2461,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2449,8 +2486,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2476,10 +2513,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="46">
         <v>1280</v>
       </c>
-      <c r="B41" s="44"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2497,10 +2534,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="43">
+      <c r="K41" s="46">
         <v>1280</v>
       </c>
-      <c r="L41" s="44"/>
+      <c r="L41" s="47"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2521,8 +2558,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2539,8 +2576,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="49"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2561,8 +2598,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2583,8 +2620,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2610,8 +2647,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2629,8 +2666,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="46"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="49"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2651,8 +2688,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2669,8 +2706,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="46"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="49"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2691,8 +2728,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2713,8 +2750,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="48"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="51"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2740,10 +2777,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
+      <c r="A47" s="27">
         <v>1345</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2761,10 +2798,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="49">
+      <c r="K47" s="27">
         <v>1345</v>
       </c>
-      <c r="L47" s="50"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2785,8 +2822,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2803,8 +2840,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2823,8 +2860,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2845,8 +2882,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2869,8 +2906,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2888,8 +2925,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2908,8 +2945,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2926,8 +2963,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2946,8 +2983,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2968,8 +3005,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -2993,6 +3030,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3009,13 +3053,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3024,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE648EA8-B30A-40FD-8211-0DEB83AA1C66}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,35 +3084,38 @@
     <col min="16" max="16" width="20.140625" customWidth="1"/>
     <col min="17" max="17" width="17.85546875" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3124,10 +3164,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="34">
         <v>584</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3158,8 +3198,8 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3210,8 +3250,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3277,8 +3317,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3329,8 +3369,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3396,10 +3436,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="40">
         <v>980</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3430,8 +3470,8 @@
       <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3482,8 +3522,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3549,8 +3589,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3601,8 +3641,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -3668,10 +3708,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="46">
         <v>1280</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3702,8 +3742,8 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3754,8 +3794,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3821,8 +3861,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3872,9 +3912,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -3939,11 +3979,11 @@
         <v>0.53671875000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>1345</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -3965,25 +4005,28 @@
         <v>41</v>
       </c>
       <c r="M18" s="10"/>
-      <c r="N18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
+      <c r="N18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4032,10 +4075,13 @@
       <c r="R19" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4100,9 +4146,9 @@
         <v>0.98141263940520451</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4136,15 +4182,25 @@
       <c r="M21" s="7">
         <v>1201</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="N21" s="26">
+        <v>669</v>
+      </c>
+      <c r="O21" s="26">
+        <v>614</v>
+      </c>
+      <c r="P21" s="26">
+        <v>588</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>579</v>
+      </c>
+      <c r="R21" s="26">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4153,7 +4209,7 @@
         <v>4.6840148698884761E-2</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" ref="E22:P22" si="13">($A$18-E21)/$A$18</f>
+        <f t="shared" ref="E22:R22" si="13">($A$18-E21)/$A$18</f>
         <v>7.5092936802973978E-2</v>
       </c>
       <c r="F22" s="8">
@@ -4188,26 +4244,32 @@
         <f t="shared" si="13"/>
         <v>0.10706319702602231</v>
       </c>
-      <c r="N22" s="27">
-        <f>($A$18-N21)/$A$18</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="27">
+      <c r="N22" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="27">
+        <v>0.50260223048327135</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+        <v>0.54349442379182156</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.56282527881040889</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.56951672862453528</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.55985130111524162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>1640</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>30</v>
       </c>
@@ -4237,11 +4299,11 @@
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4288,12 +4350,21 @@
       <c r="R28" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="S28" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>584</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4343,41 +4414,61 @@
         <v>8.0800000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>7.2519999999999998E-3</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>7.404E-3</v>
+      </c>
       <c r="F30" s="1">
         <v>4.5640000000000003E-3</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1">
+        <v>7.5799999999999999E-3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4.6839999999999998E-3</v>
+      </c>
       <c r="I30" s="1">
         <v>3.6480000000000002E-3</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1">
+        <v>7.7640000000000001E-3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5.2319999999999997E-3</v>
+      </c>
       <c r="L30" s="1">
         <v>3.7160000000000001E-3</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="M30" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>7.9920000000000008E-3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3.82E-3</v>
+      </c>
       <c r="Q30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
+      <c r="R30" s="1">
+        <v>2.944E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4385,36 +4476,66 @@
         <f>D29+D30</f>
         <v>2.828E-2</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="19">
+        <f t="shared" ref="E31:R31" si="14">E29+E30</f>
+        <v>2.46E-2</v>
+      </c>
       <c r="F31" s="19">
-        <f>F29+F30</f>
+        <f t="shared" si="14"/>
         <v>1.8228000000000001E-2</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="19">
+        <f t="shared" si="14"/>
+        <v>2.3168000000000001E-2</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.6584000000000002E-2</v>
+      </c>
       <c r="I31" s="19">
-        <f t="shared" ref="I31:Q31" si="14">I29+I30</f>
+        <f>I29+I30</f>
         <v>1.3652000000000001E-2</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="J31" s="19">
+        <f t="shared" si="14"/>
+        <v>2.2775999999999998E-2</v>
+      </c>
+      <c r="K31" s="19">
+        <f>K29+K30</f>
+        <v>1.6368000000000001E-2</v>
+      </c>
       <c r="L31" s="19">
         <f t="shared" si="14"/>
         <v>1.2876E-2</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="M31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.1908E-2</v>
+      </c>
+      <c r="N31" s="19">
+        <f t="shared" si="14"/>
+        <v>2.3736E-2</v>
+      </c>
+      <c r="O31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.7312000000000001E-2</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.3260000000000001E-2</v>
+      </c>
       <c r="Q31" s="19">
         <f t="shared" si="14"/>
         <v>1.1751999999999999E-2</v>
       </c>
-      <c r="R31" s="19"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
+      <c r="R31" s="19">
+        <f t="shared" si="14"/>
+        <v>1.1024000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4437,7 +4558,7 @@
         <v>5.2519999999999997E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>47480</v>
+        <v>4.7480000000000001E-2</v>
       </c>
       <c r="K32" s="1">
         <v>4.8259999999999997E-2</v>
@@ -4465,40 +4586,60 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="1">
         <v>2.1187999999999999E-2</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>2.0587999999999999E-2</v>
+      </c>
       <c r="F33" s="1">
         <v>2.0572E-2</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="1">
+        <v>2.0175999999999999E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.0175999999999999E-2</v>
+      </c>
       <c r="I33" s="1">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="1">
+        <v>2.0292000000000001E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
       <c r="L33" s="1">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="M33" s="1">
+        <v>2.0671999999999999E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.7864000000000001E-2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.7448000000000002E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1.7328E-2</v>
+      </c>
       <c r="Q33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1">
+        <v>1.7288000000000001E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4506,38 +4647,68 @@
         <f>D32+D33</f>
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="19">
+        <f t="shared" ref="E34:R34" si="15">E32+E33</f>
+        <v>7.0456000000000005E-2</v>
+      </c>
       <c r="F34" s="19">
-        <f t="shared" ref="F34:Q34" si="15">F32+F33</f>
+        <f t="shared" si="15"/>
         <v>7.4459999999999998E-2</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="19">
+        <f t="shared" si="15"/>
+        <v>6.7504000000000008E-2</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="15"/>
+        <v>6.8159999999999998E-2</v>
+      </c>
       <c r="I34" s="19">
         <f t="shared" si="15"/>
         <v>7.2819999999999996E-2</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="J34" s="19">
+        <f>J32+J33</f>
+        <v>6.7771999999999999E-2</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="15"/>
+        <v>6.8559999999999996E-2</v>
+      </c>
       <c r="L34" s="19">
         <f t="shared" si="15"/>
         <v>6.9307999999999995E-2</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
+      <c r="M34" s="19">
+        <f t="shared" si="15"/>
+        <v>7.1856000000000003E-2</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="15"/>
+        <v>6.0403999999999999E-2</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="15"/>
+        <v>5.8732000000000006E-2</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="15"/>
+        <v>5.8768000000000001E-2</v>
+      </c>
       <c r="Q34" s="19">
         <f t="shared" si="15"/>
         <v>5.9072E-2</v>
       </c>
-      <c r="R34" s="19"/>
+      <c r="R34" s="19">
+        <f t="shared" si="15"/>
+        <v>6.3224000000000002E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="40">
         <v>980</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4588,40 +4759,60 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="16">
         <v>1.2004000000000001E-2</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="16">
+        <v>1.2296E-2</v>
+      </c>
       <c r="F36" s="16">
         <v>8.9280000000000002E-3</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="16">
+        <v>1.2567999999999999E-2</v>
+      </c>
+      <c r="H36" s="16">
+        <v>9.0840000000000001E-3</v>
+      </c>
       <c r="I36" s="16">
         <v>5.9040000000000004E-3</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="J36" s="16">
+        <v>1.2884E-2</v>
+      </c>
+      <c r="K36" s="16">
+        <v>9.2519999999999998E-3</v>
+      </c>
       <c r="L36" s="16">
         <v>5.9959999999999996E-3</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+      <c r="M36" s="16">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1.3224E-2</v>
+      </c>
+      <c r="O36" s="16">
+        <v>9.4359999999999999E-3</v>
+      </c>
+      <c r="P36" s="16">
+        <v>6.6319999999999999E-3</v>
+      </c>
       <c r="Q36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="R36" s="16"/>
+      <c r="R36" s="16">
+        <v>4.6759999999999996E-3</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4629,36 +4820,66 @@
         <f>D35+D36</f>
         <v>4.7132E-2</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="19">
+        <f t="shared" ref="E37:R37" si="16">E35+E36</f>
+        <v>4.0696000000000003E-2</v>
+      </c>
       <c r="F37" s="19">
-        <f t="shared" ref="F37:Q37" si="16">F35+F36</f>
+        <f t="shared" si="16"/>
         <v>3.1643999999999999E-2</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="G37" s="19">
+        <f t="shared" si="16"/>
+        <v>3.8136000000000003E-2</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="16"/>
+        <v>2.8403999999999999E-2</v>
+      </c>
       <c r="I37" s="19">
         <f t="shared" si="16"/>
         <v>2.1932E-2</v>
       </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="J37" s="19">
+        <f t="shared" si="16"/>
+        <v>3.7432E-2</v>
+      </c>
+      <c r="K37" s="19">
+        <f t="shared" si="16"/>
+        <v>2.7216000000000001E-2</v>
+      </c>
       <c r="L37" s="19">
         <f t="shared" si="16"/>
         <v>2.052E-2</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
+      <c r="M37" s="19">
+        <f t="shared" si="16"/>
+        <v>1.8492000000000001E-2</v>
+      </c>
+      <c r="N37" s="19">
+        <f t="shared" si="16"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O37" s="19">
+        <f t="shared" si="16"/>
+        <v>2.7060000000000001E-2</v>
+      </c>
+      <c r="P37" s="19">
+        <f t="shared" si="16"/>
+        <v>2.0628000000000001E-2</v>
+      </c>
       <c r="Q37" s="19">
         <f t="shared" si="16"/>
         <v>1.8467999999999998E-2</v>
       </c>
-      <c r="R37" s="19"/>
+      <c r="R37" s="19">
+        <f t="shared" si="16"/>
+        <v>1.7132000000000001E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -4709,40 +4930,60 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="16">
         <v>3.5228000000000002E-2</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16">
+        <v>3.4583999999999997E-2</v>
+      </c>
       <c r="F39" s="16">
         <v>3.4680000000000002E-2</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="16">
+        <v>3.4335999999999998E-2</v>
+      </c>
+      <c r="H39" s="16">
+        <v>3.4383999999999998E-2</v>
+      </c>
       <c r="I39" s="16">
         <v>3.4556000000000003E-2</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="J39" s="16">
+        <v>3.4507999999999997E-2</v>
+      </c>
+      <c r="K39" s="16">
+        <v>3.4604000000000003E-2</v>
+      </c>
       <c r="L39" s="16">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="M39" s="16">
+        <v>3.4079999999999999E-2</v>
+      </c>
+      <c r="N39" s="16">
+        <v>2.6144000000000001E-2</v>
+      </c>
+      <c r="O39" s="16">
+        <v>2.4688000000000002E-2</v>
+      </c>
+      <c r="P39" s="16">
+        <v>2.4039999999999999E-2</v>
+      </c>
       <c r="Q39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="R39" s="16"/>
+      <c r="R39" s="16">
+        <v>2.3528E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4750,38 +4991,68 @@
         <f>D38+D39</f>
         <v>0.13736400000000001</v>
       </c>
-      <c r="E40" s="19"/>
+      <c r="E40" s="19">
+        <f t="shared" ref="E40:R40" si="17">E38+E39</f>
+        <v>0.11874399999999999</v>
+      </c>
       <c r="F40" s="19">
-        <f t="shared" ref="F40:Q40" si="17">F38+F39</f>
+        <f t="shared" si="17"/>
         <v>0.125776</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="G40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.114144</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.116272</v>
+      </c>
       <c r="I40" s="19">
         <f t="shared" si="17"/>
         <v>0.12115200000000001</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="J40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.115452</v>
+      </c>
+      <c r="K40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.116676</v>
+      </c>
       <c r="L40" s="19">
         <f t="shared" si="17"/>
         <v>0.11824000000000001</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="M40" s="19">
+        <f t="shared" si="17"/>
+        <v>0.122436</v>
+      </c>
+      <c r="N40" s="19">
+        <f t="shared" si="17"/>
+        <v>8.7148000000000003E-2</v>
+      </c>
+      <c r="O40" s="19">
+        <f t="shared" si="17"/>
+        <v>8.2332000000000002E-2</v>
+      </c>
+      <c r="P40" s="19">
+        <f t="shared" si="17"/>
+        <v>8.1792000000000004E-2</v>
+      </c>
       <c r="Q40" s="19">
         <f t="shared" si="17"/>
         <v>8.1276000000000001E-2</v>
       </c>
-      <c r="R40" s="19"/>
+      <c r="R40" s="19">
+        <f t="shared" si="17"/>
+        <v>8.6648000000000003E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="46">
         <v>1280</v>
       </c>
-      <c r="B41" s="44"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4832,40 +5103,60 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="4">
         <v>1.558E-2</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4">
+        <v>1.5952000000000001E-2</v>
+      </c>
       <c r="F42" s="4">
         <v>1.1552E-2</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="4">
+        <v>1.6327999999999999E-2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1.1724E-2</v>
+      </c>
       <c r="I42" s="4">
         <v>9.3480000000000004E-3</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="J42" s="4">
+        <v>1.6716000000000002E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.192E-2</v>
+      </c>
       <c r="L42" s="4">
         <v>9.476E-3</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="M42" s="4">
+        <v>6.5120000000000004E-3</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.7144E-2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1.2192E-2</v>
+      </c>
+      <c r="P42" s="4">
+        <v>9.6279999999999994E-3</v>
+      </c>
       <c r="Q42" s="4">
         <v>6.6160000000000004E-3</v>
       </c>
-      <c r="R42" s="4"/>
+      <c r="R42" s="4">
+        <v>5.9719999999999999E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4873,36 +5164,66 @@
         <f>D41+D42</f>
         <v>6.1303999999999997E-2</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="19">
+        <f t="shared" ref="E43:R43" si="18">E41+E42</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="F43" s="19">
-        <f t="shared" ref="F43:Q43" si="18">F41+F42</f>
+        <f t="shared" si="18"/>
         <v>4.0739999999999998E-2</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="G43" s="19">
+        <f t="shared" si="18"/>
+        <v>4.9563999999999997E-2</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="18"/>
+        <v>3.6732000000000001E-2</v>
+      </c>
       <c r="I43" s="19">
         <f t="shared" si="18"/>
         <v>3.0095999999999998E-2</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
+      <c r="J43" s="19">
+        <f t="shared" si="18"/>
+        <v>4.8756000000000001E-2</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="18"/>
+        <v>3.5335999999999999E-2</v>
+      </c>
       <c r="L43" s="19">
         <f t="shared" si="18"/>
         <v>2.8443999999999997E-2</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
+      <c r="M43" s="19">
+        <f t="shared" si="18"/>
+        <v>2.3216000000000001E-2</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="18"/>
+        <v>4.9692E-2</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="18"/>
+        <v>3.5380000000000002E-2</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="18"/>
+        <v>2.8136000000000001E-2</v>
+      </c>
       <c r="Q43" s="19">
         <f t="shared" si="18"/>
         <v>2.2952E-2</v>
       </c>
-      <c r="R43" s="19"/>
+      <c r="R43" s="19">
+        <f t="shared" si="18"/>
+        <v>2.1271999999999999E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4953,40 +5274,60 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="4">
         <v>4.5443999999999998E-2</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4">
+        <v>4.4875999999999999E-2</v>
+      </c>
       <c r="F45" s="4">
         <v>4.4943999999999998E-2</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4">
+        <v>4.4631999999999998E-2</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4.4667999999999999E-2</v>
+      </c>
       <c r="I45" s="4">
         <v>4.4847999999999999E-2</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="J45" s="4">
+        <v>4.3616000000000002E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4.3456000000000002E-2</v>
+      </c>
       <c r="L45" s="4">
         <v>4.3580000000000001E-2</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="M45" s="4">
+        <v>4.3816000000000001E-2</v>
+      </c>
+      <c r="N45" s="4">
+        <v>3.0224000000000001E-2</v>
+      </c>
+      <c r="O45" s="4">
+        <v>2.7675999999999999E-2</v>
+      </c>
+      <c r="P45" s="4">
+        <v>2.6436000000000001E-2</v>
+      </c>
       <c r="Q45" s="4">
         <v>2.5876E-2</v>
       </c>
-      <c r="R45" s="4"/>
+      <c r="R45" s="4">
+        <v>2.5492000000000001E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4994,38 +5335,68 @@
         <f>D44+D45</f>
         <v>0.17780400000000002</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="19">
+        <f t="shared" ref="E46:R46" si="19">E44+E45</f>
+        <v>0.15426000000000001</v>
+      </c>
       <c r="F46" s="19">
-        <f t="shared" ref="F46:Q46" si="19">F44+F45</f>
+        <f t="shared" si="19"/>
         <v>0.16306799999999999</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.14885999999999999</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.15083199999999999</v>
+      </c>
       <c r="I46" s="19">
         <f t="shared" si="19"/>
         <v>0.157944</v>
       </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="J46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.146428</v>
+      </c>
+      <c r="K46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.14690800000000001</v>
+      </c>
       <c r="L46" s="19">
         <f t="shared" si="19"/>
         <v>0.14869199999999999</v>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
+      <c r="M46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.15484000000000001</v>
+      </c>
+      <c r="N46" s="19">
+        <f t="shared" si="19"/>
+        <v>0.100796</v>
+      </c>
+      <c r="O46" s="19">
+        <f t="shared" si="19"/>
+        <v>9.201200000000001E-2</v>
+      </c>
+      <c r="P46" s="19">
+        <f t="shared" si="19"/>
+        <v>8.8652000000000009E-2</v>
+      </c>
       <c r="Q46" s="19">
         <f t="shared" si="19"/>
         <v>8.7319999999999995E-2</v>
       </c>
-      <c r="R46" s="19"/>
+      <c r="R46" s="19">
+        <f t="shared" si="19"/>
+        <v>9.2336000000000001E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
+      <c r="A47" s="27">
         <v>1345</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5068,7 +5439,7 @@
       <c r="P47" s="7">
         <v>1.9103999999999999E-2</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="7">
         <v>1.6844000000000001E-2</v>
       </c>
       <c r="R47" s="7">
@@ -5076,38 +5447,60 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="7">
         <v>1.6407999999999999E-2</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="7">
+        <v>1.6740000000000001E-2</v>
+      </c>
       <c r="F48" s="7">
         <v>1.2156E-2</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="7">
+        <v>1.7135999999999998E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1.2307999999999999E-2</v>
+      </c>
       <c r="I48" s="7">
         <v>9.8840000000000004E-3</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="J48" s="7">
+        <v>1.7544000000000001E-2</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1.2536E-2</v>
+      </c>
       <c r="L48" s="7">
         <v>9.9319999999999999E-3</v>
       </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="7"/>
+      <c r="M48" s="7">
+        <v>6.8079999999999998E-3</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1.7984E-2</v>
+      </c>
+      <c r="O48" s="7">
+        <v>1.2784E-2</v>
+      </c>
+      <c r="P48" s="7">
+        <v>1.0096000000000001E-2</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>6.9360000000000003E-3</v>
+      </c>
+      <c r="R48" s="7">
+        <v>6.2960000000000004E-3</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5115,33 +5508,66 @@
         <f>D47+D48</f>
         <v>6.4407999999999993E-2</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="19">
+        <f t="shared" ref="E49:R49" si="20">E47+E48</f>
+        <v>5.5620000000000003E-2</v>
+      </c>
       <c r="F49" s="19">
-        <f t="shared" ref="F49:L49" si="20">F47+F48</f>
+        <f t="shared" si="20"/>
         <v>4.2788E-2</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="G49" s="19">
+        <f t="shared" si="20"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="20"/>
+        <v>3.8528E-2</v>
+      </c>
       <c r="I49" s="19">
         <f t="shared" si="20"/>
         <v>3.1635999999999997E-2</v>
       </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="J49" s="19">
+        <f t="shared" si="20"/>
+        <v>5.0743999999999997E-2</v>
+      </c>
+      <c r="K49" s="19">
+        <f t="shared" si="20"/>
+        <v>3.6796000000000002E-2</v>
+      </c>
       <c r="L49" s="19">
         <f t="shared" si="20"/>
         <v>2.9516000000000001E-2</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="19"/>
+      <c r="M49" s="19">
+        <f t="shared" si="20"/>
+        <v>2.3983999999999998E-2</v>
+      </c>
+      <c r="N49" s="19">
+        <f t="shared" si="20"/>
+        <v>5.1852000000000002E-2</v>
+      </c>
+      <c r="O49" s="19">
+        <f t="shared" si="20"/>
+        <v>3.6836000000000001E-2</v>
+      </c>
+      <c r="P49" s="19">
+        <f t="shared" si="20"/>
+        <v>2.92E-2</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="20"/>
+        <v>2.3780000000000003E-2</v>
+      </c>
+      <c r="R49" s="19">
+        <f t="shared" si="20"/>
+        <v>2.2103999999999999E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5175,45 +5601,77 @@
       <c r="M50" s="7">
         <v>0.11692</v>
       </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="7"/>
+      <c r="N50" s="26">
+        <v>7.0828000000000002E-2</v>
+      </c>
+      <c r="O50" s="26">
+        <v>6.5355999999999997E-2</v>
+      </c>
+      <c r="P50" s="26">
+        <v>6.2848000000000001E-2</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>6.2715999999999994E-2</v>
+      </c>
+      <c r="R50" s="26">
+        <v>6.7227999999999996E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="7">
         <v>4.7668000000000002E-2</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="7">
+        <v>4.7160000000000001E-2</v>
+      </c>
       <c r="F51" s="7">
         <v>4.7224000000000002E-2</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="G51" s="7">
+        <v>4.6924E-2</v>
+      </c>
+      <c r="H51" s="7">
+        <v>4.6955999999999998E-2</v>
+      </c>
       <c r="I51" s="7">
         <v>4.7156000000000003E-2</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="J51" s="7">
+        <v>4.5887999999999998E-2</v>
+      </c>
+      <c r="K51" s="7">
+        <v>4.5760000000000002E-2</v>
+      </c>
       <c r="L51" s="7">
         <v>4.5887999999999998E-2</v>
       </c>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="7"/>
+      <c r="M51" s="7">
+        <v>4.6131999999999999E-2</v>
+      </c>
+      <c r="N51" s="26">
+        <v>3.0984000000000001E-2</v>
+      </c>
+      <c r="O51" s="26">
+        <v>2.8208E-2</v>
+      </c>
+      <c r="P51" s="26">
+        <v>2.6844E-2</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>2.6211999999999999E-2</v>
+      </c>
+      <c r="R51" s="26">
+        <v>2.5832000000000001E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5221,29 +5679,62 @@
         <f>D50+D51</f>
         <v>0.18627199999999999</v>
       </c>
-      <c r="E52" s="19"/>
+      <c r="E52" s="19">
+        <f t="shared" ref="E52:R52" si="21">E50+E51</f>
+        <v>5.8606400000000003E-2</v>
+      </c>
       <c r="F52" s="19">
-        <f t="shared" ref="F52:L52" si="21">F50+F51</f>
+        <f t="shared" si="21"/>
         <v>0.171736</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="G52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.15629599999999999</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.15837600000000002</v>
+      </c>
       <c r="I52" s="19">
         <f t="shared" si="21"/>
         <v>0.16613600000000001</v>
       </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
+      <c r="J52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.15454000000000001</v>
+      </c>
+      <c r="K52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.15435199999999999</v>
+      </c>
       <c r="L52" s="19">
         <f t="shared" si="21"/>
         <v>0.157028</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="19"/>
+      <c r="M52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.163052</v>
+      </c>
+      <c r="N52" s="19">
+        <f t="shared" si="21"/>
+        <v>0.101812</v>
+      </c>
+      <c r="O52" s="19">
+        <f t="shared" si="21"/>
+        <v>9.3563999999999994E-2</v>
+      </c>
+      <c r="P52" s="19">
+        <f t="shared" si="21"/>
+        <v>8.9691999999999994E-2</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="21"/>
+        <v>8.8927999999999993E-2</v>
+      </c>
+      <c r="R52" s="19">
+        <f t="shared" si="21"/>
+        <v>9.3060000000000004E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F734753-7EA3-4542-BDE5-4C46DABBBA8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="59">
   <si>
     <t>0 x</t>
   </si>
@@ -203,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,26 +499,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,41 +571,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R52"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -910,32 +909,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="K2" s="54" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -952,10 +951,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="53"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -974,10 +973,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="39">
         <v>584</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -996,10 +995,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="39">
         <v>584</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1020,8 +1019,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1040,8 +1039,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1062,8 +1061,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1087,8 +1086,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1114,8 +1113,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1134,8 +1133,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1156,8 +1155,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1181,8 +1180,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1208,10 +1207,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="45">
         <v>980</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1230,10 +1229,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="45">
         <v>980</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1254,8 +1253,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1274,8 +1273,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1296,8 +1295,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1321,8 +1320,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1348,8 +1347,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1368,8 +1367,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1390,8 +1389,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1415,8 +1414,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1442,10 +1441,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="30">
         <v>1280</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1464,10 +1463,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="30">
         <v>1280</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1488,8 +1487,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1506,8 +1505,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1528,8 +1527,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1553,8 +1552,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1580,8 +1579,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1598,8 +1597,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1620,8 +1619,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1645,8 +1644,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1672,10 +1671,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="51">
         <v>1345</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1694,10 +1693,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="51">
         <v>1345</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1718,8 +1717,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1736,8 +1735,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1758,8 +1757,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1780,8 +1779,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1807,8 +1806,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1825,8 +1824,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1845,8 +1844,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1867,8 +1866,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1891,10 +1890,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="33">
+      <c r="K24" s="57">
         <v>1640</v>
       </c>
-      <c r="L24" s="33"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -1915,10 +1914,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1935,10 +1934,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="53"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -1957,10 +1956,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="39">
         <v>584</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1980,10 +1979,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="34">
+      <c r="K29" s="39">
         <v>584</v>
       </c>
-      <c r="L29" s="35"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2004,8 +2003,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2024,8 +2023,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2046,8 +2045,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2071,8 +2070,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2098,8 +2097,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2119,8 +2118,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2141,8 +2140,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2161,8 +2160,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2183,8 +2182,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2207,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2235,10 +2234,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="A35" s="45">
         <v>980</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2258,10 +2257,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="40">
+      <c r="K35" s="45">
         <v>980</v>
       </c>
-      <c r="L35" s="41"/>
+      <c r="L35" s="46"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2282,8 +2281,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2302,8 +2301,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="48"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2324,8 +2323,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2349,8 +2348,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2375,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2396,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2419,8 +2418,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2439,8 +2438,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="42"/>
-      <c r="L39" s="43"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2461,8 +2460,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2486,8 +2485,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2513,10 +2512,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="30">
         <v>1280</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2534,10 +2533,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="46">
+      <c r="K41" s="30">
         <v>1280</v>
       </c>
-      <c r="L41" s="47"/>
+      <c r="L41" s="31"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2558,8 +2557,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2576,8 +2575,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="49"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2598,8 +2597,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2619,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2647,8 +2646,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2666,8 +2665,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="49"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2688,8 +2687,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2706,8 +2705,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="49"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2728,8 +2727,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2750,8 +2749,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2777,10 +2776,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+      <c r="A47" s="51">
         <v>1345</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2798,10 +2797,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="27">
+      <c r="K47" s="51">
         <v>1345</v>
       </c>
-      <c r="L47" s="28"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2822,8 +2821,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2840,8 +2839,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="54"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2860,8 +2859,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2882,8 +2881,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2906,8 +2905,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2925,8 +2924,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="30"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="54"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2945,8 +2944,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2963,8 +2962,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="30"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="54"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2983,8 +2982,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3005,8 +3004,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="56"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3030,13 +3029,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3053,6 +3045,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3060,11 +3059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE648EA8-B30A-40FD-8211-0DEB83AA1C66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,32 +3089,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3164,42 +3163,62 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="39">
         <v>584</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="I3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Q3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3250,8 +3269,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3317,8 +3336,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3369,8 +3388,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3436,42 +3455,62 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="45">
         <v>980</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="Q8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="20"/>
+      <c r="R8" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3522,8 +3561,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3589,8 +3628,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3641,8 +3680,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -3708,42 +3747,62 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="30">
         <v>1280</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="E13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="L13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="M13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="Q13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3794,8 +3853,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3861,8 +3920,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3913,8 +3972,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -3980,53 +4039,65 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="51">
         <v>1345</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="I18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="L18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="56" t="s">
+      <c r="P18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="55" t="s">
+      <c r="T18" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4080,8 +4151,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4147,8 +4218,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4199,8 +4270,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4266,10 +4337,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="57">
         <v>1640</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="24" t="s">
         <v>30</v>
       </c>
@@ -4300,10 +4371,10 @@
       <c r="R23" s="25"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4350,21 +4421,21 @@
       <c r="R28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="57" t="s">
+      <c r="S28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="57" t="s">
+      <c r="T28" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="U28" s="57" t="s">
+      <c r="U28" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="39">
         <v>584</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4415,8 +4486,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4467,8 +4538,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4534,8 +4605,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4586,8 +4657,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4638,8 +4709,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4705,10 +4776,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="A35" s="45">
         <v>980</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4759,8 +4830,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4811,8 +4882,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4878,8 +4949,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -4930,8 +5001,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -4982,8 +5053,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5049,10 +5120,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="30">
         <v>1280</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5103,8 +5174,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5155,8 +5226,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5222,8 +5293,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5274,8 +5345,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5326,8 +5397,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5393,10 +5464,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+      <c r="A47" s="51">
         <v>1345</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5447,8 +5518,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5499,8 +5570,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5566,8 +5637,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5618,8 +5689,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5670,8 +5741,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="69">
   <si>
     <t>0 x</t>
   </si>
@@ -197,13 +198,43 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>Panjang Data</t>
+  </si>
+  <si>
+    <t>homogen</t>
+  </si>
+  <si>
+    <t>heterogen</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Waktu Kompresi Data</t>
+  </si>
+  <si>
+    <t>Waktu Dekompresi Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efektifitas </t>
+  </si>
+  <si>
+    <t>efektifitas</t>
+  </si>
+  <si>
+    <t>tA</t>
+  </si>
+  <si>
+    <t>tB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +258,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -446,12 +485,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -508,32 +573,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,26 +630,80 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -909,32 +1022,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="K2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -951,10 +1064,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="38"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -973,10 +1086,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="37">
         <v>584</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -995,10 +1108,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="37">
         <v>584</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1019,8 +1132,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1039,8 +1152,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1061,8 +1174,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1086,8 +1199,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1113,8 +1226,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1133,8 +1246,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1155,8 +1268,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1180,8 +1293,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1207,10 +1320,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <v>980</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1229,10 +1342,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="43">
         <v>980</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1253,8 +1366,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1273,8 +1386,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1295,8 +1408,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1320,8 +1433,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1347,8 +1460,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1367,8 +1480,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1389,8 +1502,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1414,8 +1527,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1441,10 +1554,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="49">
         <v>1280</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1463,10 +1576,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="49">
         <v>1280</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1487,8 +1600,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1505,8 +1618,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1527,8 +1640,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1552,8 +1665,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1579,8 +1692,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1597,8 +1710,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1619,8 +1732,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1644,8 +1757,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1671,10 +1784,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="30">
         <v>1345</v>
       </c>
-      <c r="B19" s="52"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1693,10 +1806,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="30">
         <v>1345</v>
       </c>
-      <c r="L19" s="52"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1717,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1735,8 +1848,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1757,8 +1870,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1779,8 +1892,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1806,8 +1919,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1824,8 +1937,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1844,8 +1957,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1866,8 +1979,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1890,10 +2003,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="57">
+      <c r="K24" s="36">
         <v>1640</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -1914,10 +2027,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -1934,10 +2047,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="38"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -1956,10 +2069,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="37">
         <v>584</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1979,10 +2092,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="39">
+      <c r="K29" s="37">
         <v>584</v>
       </c>
-      <c r="L29" s="40"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2003,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2023,8 +2136,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2045,8 +2158,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2070,8 +2183,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2097,8 +2210,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2118,8 +2231,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2140,8 +2253,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2160,8 +2273,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2182,8 +2295,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2320,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2234,10 +2347,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="43">
         <v>980</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2257,10 +2370,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="45">
+      <c r="K35" s="43">
         <v>980</v>
       </c>
-      <c r="L35" s="46"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2281,8 +2394,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2301,8 +2414,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="48"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2323,8 +2436,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2348,8 +2461,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2488,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2509,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="48"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2418,8 +2531,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2438,8 +2551,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2460,8 +2573,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2485,8 +2598,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="50"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2512,10 +2625,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="49">
         <v>1280</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2533,10 +2646,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="30">
+      <c r="K41" s="49">
         <v>1280</v>
       </c>
-      <c r="L41" s="31"/>
+      <c r="L41" s="50"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2557,8 +2670,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2688,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2597,8 +2710,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2619,8 +2732,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2646,8 +2759,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2778,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2687,8 +2800,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2705,8 +2818,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2727,8 +2840,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2749,8 +2862,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2776,10 +2889,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="51">
+      <c r="A47" s="30">
         <v>1345</v>
       </c>
-      <c r="B47" s="52"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2797,10 +2910,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="51">
+      <c r="K47" s="30">
         <v>1345</v>
       </c>
-      <c r="L47" s="52"/>
+      <c r="L47" s="31"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2821,8 +2934,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2839,8 +2952,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2859,8 +2972,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2881,8 +2994,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2905,8 +3018,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2924,8 +3037,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2944,8 +3057,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2962,8 +3075,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -2982,8 +3095,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3004,8 +3117,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="56"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3029,6 +3142,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3045,13 +3165,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3062,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B40"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,32 +3202,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3163,10 +3276,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="37">
         <v>584</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3217,8 +3330,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3269,8 +3382,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3336,8 +3449,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3388,8 +3501,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3455,10 +3568,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <v>980</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3509,8 +3622,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3561,8 +3674,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3628,8 +3741,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3680,8 +3793,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -3747,10 +3860,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="49">
         <v>1280</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3801,8 +3914,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3853,8 +3966,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3920,8 +4033,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3972,8 +4085,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -4039,10 +4152,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="30">
         <v>1345</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -4096,8 +4209,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4151,8 +4264,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4218,8 +4331,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4270,8 +4383,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4337,10 +4450,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="57">
+      <c r="A23" s="36">
         <v>1640</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="24" t="s">
         <v>30</v>
       </c>
@@ -4371,10 +4484,10 @@
       <c r="R23" s="25"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4432,10 +4545,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="37">
         <v>584</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4486,8 +4599,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4538,8 +4651,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4605,8 +4718,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4657,8 +4770,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4709,8 +4822,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4776,10 +4889,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="43">
         <v>980</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4830,8 +4943,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4882,8 +4995,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4949,8 +5062,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5001,8 +5114,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5053,8 +5166,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5120,10 +5233,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="49">
         <v>1280</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5174,8 +5287,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5226,8 +5339,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5293,8 +5406,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5345,8 +5458,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5397,8 +5510,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5464,10 +5577,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="51">
+      <c r="A47" s="30">
         <v>1345</v>
       </c>
-      <c r="B47" s="52"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5518,8 +5631,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5570,8 +5683,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5637,8 +5750,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5689,8 +5802,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5741,8 +5854,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5824,4 +5937,846 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:R38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="71">
+        <v>584</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1028000000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.3664000000000001E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0004000000000001E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.7279999999999996E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="L8" s="58">
+        <v>584</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1">
+        <v>76</v>
+      </c>
+      <c r="O8" s="1">
+        <v>49</v>
+      </c>
+      <c r="P8" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>20</v>
+      </c>
+      <c r="R8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.1112E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.3887999999999998E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.2519999999999997E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.1184E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.5935999999999998E-2</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="2">
+        <f>($L$8-N8)/$L$8</f>
+        <v>0.86986301369863017</v>
+      </c>
+      <c r="O9" s="2">
+        <f>($L$8-O8)/$L$8</f>
+        <v>0.91609589041095896</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9:R9" si="0">($L$8-P8)/$L$8</f>
+        <v>0.94691780821917804</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96575342465753422</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97773972602739723</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="72">
+        <v>980</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3.5128E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2.2716E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1.6028000000000001E-2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.3391999999999999E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1.2456E-2</v>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="M10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="1">
+        <v>569</v>
+      </c>
+      <c r="O10" s="1">
+        <v>537</v>
+      </c>
+      <c r="P10" s="1">
+        <v>523</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>529</v>
+      </c>
+      <c r="R10" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="72"/>
+      <c r="C11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.102136</v>
+      </c>
+      <c r="E11" s="16">
+        <v>9.1095999999999996E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>8.6596000000000006E-2</v>
+      </c>
+      <c r="G11" s="16">
+        <v>8.8356000000000004E-2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6.3119999999999996E-2</v>
+      </c>
+      <c r="L11" s="60"/>
+      <c r="M11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="2">
+        <f>($L$8-N10)/$L$8</f>
+        <v>2.5684931506849314E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ref="O11:R11" si="1">($L$8-O10)/$L$8</f>
+        <v>8.0479452054794523E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10445205479452055</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>9.4178082191780824E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2363013698630137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="73">
+        <v>1280</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.5724000000000001E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.9187999999999999E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.0747999999999999E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.6704E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="L12" s="61">
+        <v>980</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="16">
+        <v>126</v>
+      </c>
+      <c r="O12" s="16">
+        <v>80</v>
+      </c>
+      <c r="P12" s="16">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>31</v>
+      </c>
+      <c r="R12" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="73"/>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.13236000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.11812400000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.113096</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.111024</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.6844000000000001E-2</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="18">
+        <f>($L$12-N12)/$L$12</f>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" ref="O13:R13" si="2">($L$12-O12)/$L$12</f>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96836734693877546</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98061224489795917</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="69">
+        <v>1345</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.0632E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.1752000000000001E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.7176E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.5807999999999999E-2</v>
+      </c>
+      <c r="L14" s="62"/>
+      <c r="M14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="16">
+        <v>947</v>
+      </c>
+      <c r="O14" s="16">
+        <v>917</v>
+      </c>
+      <c r="P14" s="16">
+        <v>905</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>912</v>
+      </c>
+      <c r="R14" s="16">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="69"/>
+      <c r="C15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.138604</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.124512</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.11898</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.11692</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6.7227999999999996E-2</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="18">
+        <f>($L$12-N14)/$L$12</f>
+        <v>3.3673469387755103E-2</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" ref="O15:R15" si="3">($L$12-O14)/$L$12</f>
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="3"/>
+        <v>7.6530612244897961E-2</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="3"/>
+        <v>6.9387755102040816E-2</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="3"/>
+        <v>0.40714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L16" s="64">
+        <v>1280</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="4">
+        <v>163</v>
+      </c>
+      <c r="O16" s="22">
+        <v>103</v>
+      </c>
+      <c r="P16" s="22">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>38</v>
+      </c>
+      <c r="R16" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="65"/>
+      <c r="M17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="6">
+        <f>($L$16-N16)/$L$16</f>
+        <v>0.87265625000000002</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" ref="O17:R17" si="4">($L$16-O16)/$L$16</f>
+        <v>0.91953125000000002</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95078125000000002</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97031250000000002</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98203125000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="65"/>
+      <c r="M18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1223</v>
+      </c>
+      <c r="O18" s="22">
+        <v>1193</v>
+      </c>
+      <c r="P18" s="22">
+        <v>1181</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1138</v>
+      </c>
+      <c r="R18" s="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L19" s="66"/>
+      <c r="M19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="6">
+        <f>($L$16-N18)/$L$16</f>
+        <v>4.4531250000000001E-2</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" ref="O19:R19" si="5">($L$16-O18)/$L$16</f>
+        <v>6.7968749999999994E-2</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="5"/>
+        <v>7.7343750000000003E-2</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>($L$16-Q18)/$L$16</f>
+        <v>0.11093749999999999</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="5"/>
+        <v>0.53671875000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L20" s="69">
+        <v>1345</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="7">
+        <v>171</v>
+      </c>
+      <c r="O20" s="7">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>39</v>
+      </c>
+      <c r="R20" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L21" s="69"/>
+      <c r="M21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="8">
+        <f>($L$20-N20)/$L$20</f>
+        <v>0.87286245353159853</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:R21" si="6">($L$20-O20)/$L$20</f>
+        <v>0.91970260223048328</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="6"/>
+        <v>0.95092936802973982</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="6"/>
+        <v>0.971003717472119</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="6"/>
+        <v>0.98141263940520451</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L22" s="69"/>
+      <c r="M22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1282</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1254</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1243</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1201</v>
+      </c>
+      <c r="R22" s="7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L23" s="69"/>
+      <c r="M23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="8">
+        <f>($L$20-N22)/$L$20</f>
+        <v>4.6840148698884761E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" ref="O23:R23" si="7">($L$20-O22)/$L$20</f>
+        <v>6.7657992565055766E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="7"/>
+        <v>7.5836431226765796E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.10706319702602231</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.55985130111524162</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="71">
+        <v>584</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.2519999999999998E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.5640000000000003E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.6480000000000002E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.944E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="71"/>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.1187999999999999E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.0572E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.0671999999999999E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.7288000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="72">
+        <v>980</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1.2004000000000001E-2</v>
+      </c>
+      <c r="E33" s="16">
+        <v>8.9280000000000002E-3</v>
+      </c>
+      <c r="F33" s="16">
+        <v>5.9040000000000004E-3</v>
+      </c>
+      <c r="G33" s="16">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="H33" s="16">
+        <v>4.6759999999999996E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="72"/>
+      <c r="C34" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="16">
+        <v>3.5228000000000002E-2</v>
+      </c>
+      <c r="E34" s="16">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="F34" s="16">
+        <v>3.4556000000000003E-2</v>
+      </c>
+      <c r="G34" s="16">
+        <v>3.4079999999999999E-2</v>
+      </c>
+      <c r="H34" s="16">
+        <v>2.3528E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="73">
+        <v>1280</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.558E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.1552E-2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>9.3480000000000004E-3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>6.5120000000000004E-3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5.9719999999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="73"/>
+      <c r="C36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4.5443999999999998E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4.4943999999999998E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4.4847999999999999E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4.3816000000000001E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2.5492000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="69">
+        <v>1345</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1.6407999999999999E-2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.2156E-2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>9.8840000000000004E-3</v>
+      </c>
+      <c r="G37" s="7">
+        <v>6.8079999999999998E-3</v>
+      </c>
+      <c r="H37" s="7">
+        <v>6.2960000000000004E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="69"/>
+      <c r="C38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4.7668000000000002E-2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4.7224000000000002E-2</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4.7156000000000003E-2</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4.6131999999999999E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2.5832000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4730C57-6A7F-44F0-80DD-DD7BD11FA908}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="87">
   <si>
     <t>0 x</t>
   </si>
@@ -228,13 +230,85 @@
   </si>
   <si>
     <t>tB</t>
+  </si>
+  <si>
+    <t>HS(9,8)</t>
+  </si>
+  <si>
+    <t>berhasil</t>
+  </si>
+  <si>
+    <t>gagal</t>
+  </si>
+  <si>
+    <t>Dekompresi</t>
+  </si>
+  <si>
+    <t>Kompresi</t>
+  </si>
+  <si>
+    <t>Akurasi Pengiriman ZigBee</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>84 ,22 %</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 meter</t>
+    </r>
+  </si>
+  <si>
+    <t>±20 meter</t>
+  </si>
+  <si>
+    <t>±30 meter</t>
+  </si>
+  <si>
+    <t>Sumber</t>
+  </si>
+  <si>
+    <t>Tujuan</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t>Node ZigBee Router A</t>
+  </si>
+  <si>
+    <t>Node ZigBee Router B</t>
+  </si>
+  <si>
+    <t>Node ZigBee Coordinator</t>
+  </si>
+  <si>
+    <t>Berhasil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +343,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -516,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -571,6 +651,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,6 +749,18 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,26 +788,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="I26" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,32 +1120,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="K2" s="57" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -1064,10 +1162,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="56"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -1086,10 +1184,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="41">
         <v>584</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1108,10 +1206,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="41">
         <v>584</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,8 +1230,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1152,8 +1250,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1174,8 +1272,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1199,8 +1297,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1226,8 +1324,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1246,8 +1344,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1268,8 +1366,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1293,8 +1391,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1320,10 +1418,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="47">
         <v>980</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1342,10 +1440,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="47">
         <v>980</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1366,8 +1464,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1386,8 +1484,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1506,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1433,8 +1531,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1460,8 +1558,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1480,8 +1578,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1502,8 +1600,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1527,8 +1625,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1554,10 +1652,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="53">
         <v>1280</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1576,10 +1674,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="53">
         <v>1280</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1600,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1618,8 +1716,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1640,8 +1738,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1665,8 +1763,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1692,8 +1790,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1710,8 +1808,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1732,8 +1830,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1757,8 +1855,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1784,10 +1882,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="34">
         <v>1345</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1806,10 +1904,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="34">
         <v>1345</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1830,8 +1928,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1848,8 +1946,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1870,8 +1968,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1892,8 +1990,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1919,8 +2017,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1937,8 +2035,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1957,8 +2055,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1979,8 +2077,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2003,10 +2101,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="36">
+      <c r="K24" s="40">
         <v>1640</v>
       </c>
-      <c r="L24" s="36"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -2027,10 +2125,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -2047,10 +2145,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="56"/>
+      <c r="L28" s="60"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -2069,10 +2167,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="41">
         <v>584</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2092,10 +2190,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="37">
+      <c r="K29" s="41">
         <v>584</v>
       </c>
-      <c r="L29" s="38"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,8 +2214,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2136,8 +2234,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2158,8 +2256,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2183,8 +2281,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2308,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2231,8 +2329,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2253,8 +2351,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2273,8 +2371,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2295,8 +2393,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2320,8 +2418,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2347,10 +2445,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="47">
         <v>980</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2370,10 +2468,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="43">
+      <c r="K35" s="47">
         <v>980</v>
       </c>
-      <c r="L35" s="44"/>
+      <c r="L35" s="48"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2394,8 +2492,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2414,8 +2512,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2436,8 +2534,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2559,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2488,8 +2586,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2509,8 +2607,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2629,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2551,8 +2649,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2573,8 +2671,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2598,8 +2696,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="47"/>
-      <c r="L40" s="48"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2625,10 +2723,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="49">
+      <c r="A41" s="53">
         <v>1280</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2646,10 +2744,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="49">
+      <c r="K41" s="53">
         <v>1280</v>
       </c>
-      <c r="L41" s="50"/>
+      <c r="L41" s="54"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2670,8 +2768,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2688,8 +2786,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="56"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2710,8 +2808,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2732,8 +2830,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2759,8 +2857,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2778,8 +2876,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2800,8 +2898,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2818,8 +2916,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="52"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2840,8 +2938,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2862,8 +2960,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="58"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2889,10 +2987,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="34">
         <v>1345</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2910,10 +3008,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="30">
+      <c r="K47" s="34">
         <v>1345</v>
       </c>
-      <c r="L47" s="31"/>
+      <c r="L47" s="35"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2934,8 +3032,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2952,8 +3050,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="37"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -2972,8 +3070,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -2994,8 +3092,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3018,8 +3116,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3037,8 +3135,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="37"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3057,8 +3155,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3075,8 +3173,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="37"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3095,8 +3193,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3117,8 +3215,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3172,11 +3270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,32 +3300,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3276,10 +3374,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="41">
         <v>584</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3330,8 +3428,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3382,8 +3480,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3449,8 +3547,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3501,8 +3599,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3568,10 +3666,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="47">
         <v>980</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3622,8 +3720,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3674,8 +3772,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3741,8 +3839,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3793,8 +3891,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -3860,10 +3958,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="53">
         <v>1280</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3914,8 +4012,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3966,8 +4064,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -4033,8 +4131,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4085,8 +4183,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -4152,10 +4250,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="34">
         <v>1345</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -4209,8 +4307,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4264,8 +4362,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4331,8 +4429,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4383,8 +4481,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4450,10 +4548,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="A23" s="40">
         <v>1640</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="24" t="s">
         <v>30</v>
       </c>
@@ -4484,10 +4582,10 @@
       <c r="R23" s="25"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4545,10 +4643,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="41">
         <v>584</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4599,8 +4697,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4651,8 +4749,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4718,8 +4816,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4770,8 +4868,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4822,8 +4920,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4889,10 +4987,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="47">
         <v>980</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4943,8 +5041,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4995,8 +5093,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -5062,8 +5160,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5114,8 +5212,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5166,8 +5264,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5233,10 +5331,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="49">
+      <c r="A41" s="53">
         <v>1280</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5287,8 +5385,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5339,8 +5437,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5406,8 +5504,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5458,8 +5556,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5510,8 +5608,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5577,10 +5675,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="34">
         <v>1345</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5631,8 +5729,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5683,8 +5781,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5750,8 +5848,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5802,8 +5900,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5854,8 +5952,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5940,11 +6038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,51 +6068,51 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="67" t="s">
+      <c r="Q7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="71">
+      <c r="B8" s="65">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6035,7 +6133,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="66">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -6058,7 +6156,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6077,7 +6175,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -6103,7 +6201,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="72">
+      <c r="B10" s="62">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -6124,7 +6222,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -6145,7 +6243,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -6164,7 +6262,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="60"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -6190,7 +6288,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="73">
+      <c r="B12" s="63">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6211,7 +6309,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="69">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -6234,7 +6332,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -6253,7 +6351,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="62"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -6279,7 +6377,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="69">
+      <c r="B14" s="64">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -6300,7 +6398,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="62"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -6321,7 +6419,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -6340,7 +6438,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="63"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -6366,7 +6464,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="64">
+      <c r="L16" s="72">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -6389,7 +6487,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="65"/>
+      <c r="L17" s="73"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -6415,7 +6513,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="65"/>
+      <c r="L18" s="73"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -6436,7 +6534,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="66"/>
+      <c r="L19" s="74"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -6462,7 +6560,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="69">
+      <c r="L20" s="64">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -6485,7 +6583,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="69"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -6511,7 +6609,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="69"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6532,7 +6630,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="69"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -6563,30 +6661,30 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="71">
+      <c r="B31" s="65">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6609,7 +6707,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="71"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -6630,7 +6728,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="72">
+      <c r="B33" s="62">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -6653,7 +6751,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="72"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -6674,7 +6772,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="73">
+      <c r="B35" s="63">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6697,7 +6795,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="73"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -6718,7 +6816,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="69">
+      <c r="B37" s="64">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -6741,7 +6839,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -6779,4 +6877,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D130C-42BE-4E6B-A6EF-80A1FFE77484}">
+  <dimension ref="A5:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="33">
+        <v>584</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="33">
+        <v>980</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="33">
+        <v>1280</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="75"/>
+      <c r="B9" s="33">
+        <v>1435</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="75"/>
+      <c r="B10" s="33">
+        <v>1640</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="33">
+        <v>584</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="75"/>
+      <c r="B16" s="33">
+        <v>980</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="K16" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="P16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="33">
+        <v>1280</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="33">
+        <v>1435</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="K18" s="77">
+        <v>1</v>
+      </c>
+      <c r="L18" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="33">
+        <v>1640</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="K16:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4730C57-6A7F-44F0-80DD-DD7BD11FA908}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{551FD951-755E-423B-89AC-FEAC3BF8BF45}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="88">
   <si>
     <t>0 x</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Berhasil</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -665,26 +674,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,44 +746,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,21 +794,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,32 +1154,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="K2" s="61" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -1162,10 +1196,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="60"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -1184,10 +1218,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="46">
         <v>584</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1206,10 +1240,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="46">
         <v>584</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1230,8 +1264,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1250,8 +1284,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1272,8 +1306,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1297,8 +1331,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1324,8 +1358,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1344,8 +1378,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1366,8 +1400,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1391,8 +1425,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1418,10 +1452,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="A9" s="52">
         <v>980</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1440,10 +1474,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="52">
         <v>980</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1464,8 +1498,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1484,8 +1518,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1506,8 +1540,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1531,8 +1565,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1558,8 +1592,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1578,8 +1612,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1600,8 +1634,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1625,8 +1659,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1652,10 +1686,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="37">
         <v>1280</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1674,10 +1708,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="37">
         <v>1280</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1698,8 +1732,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1716,8 +1750,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1738,8 +1772,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1763,8 +1797,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1790,8 +1824,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1808,8 +1842,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1830,8 +1864,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1855,8 +1889,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1882,10 +1916,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="58">
         <v>1345</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1904,10 +1938,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="58">
         <v>1345</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1928,8 +1962,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1946,8 +1980,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1968,8 +2002,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1990,8 +2024,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -2017,8 +2051,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2035,8 +2069,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2055,8 +2089,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2077,8 +2111,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2101,10 +2135,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="40">
+      <c r="K24" s="64">
         <v>1640</v>
       </c>
-      <c r="L24" s="40"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -2125,10 +2159,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -2145,10 +2179,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="60"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -2167,10 +2201,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="46">
         <v>584</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2190,10 +2224,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="41">
+      <c r="K29" s="46">
         <v>584</v>
       </c>
-      <c r="L29" s="42"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2214,8 +2248,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2234,8 +2268,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2290,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2281,8 +2315,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="44"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2308,8 +2342,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2363,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2351,8 +2385,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2371,8 +2405,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2393,8 +2427,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2418,8 +2452,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2445,10 +2479,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+      <c r="A35" s="52">
         <v>980</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2468,10 +2502,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="47">
+      <c r="K35" s="52">
         <v>980</v>
       </c>
-      <c r="L35" s="48"/>
+      <c r="L35" s="53"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2492,8 +2526,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2546,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="55"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2534,8 +2568,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2559,8 +2593,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2586,8 +2620,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2607,8 +2641,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="55"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2629,8 +2663,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2649,8 +2683,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="55"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2671,8 +2705,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2696,8 +2730,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2723,10 +2757,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="53">
+      <c r="A41" s="37">
         <v>1280</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2744,10 +2778,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="53">
+      <c r="K41" s="37">
         <v>1280</v>
       </c>
-      <c r="L41" s="54"/>
+      <c r="L41" s="38"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2768,8 +2802,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2786,8 +2820,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="56"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="40"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2808,8 +2842,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2830,8 +2864,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="56"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2857,8 +2891,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2876,8 +2910,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="56"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2898,8 +2932,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2916,8 +2950,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="40"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2938,8 +2972,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +2994,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="58"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2987,10 +3021,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+      <c r="A47" s="58">
         <v>1345</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3008,10 +3042,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="34">
+      <c r="K47" s="58">
         <v>1345</v>
       </c>
-      <c r="L47" s="35"/>
+      <c r="L47" s="59"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3032,8 +3066,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -3050,8 +3084,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="37"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="61"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -3070,8 +3104,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3092,8 +3126,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="61"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3116,8 +3150,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3135,8 +3169,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="37"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="61"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3155,8 +3189,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3173,8 +3207,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="37"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="61"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3193,8 +3227,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3249,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="63"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3240,13 +3274,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3263,6 +3290,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3271,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,38 +3328,38 @@
     <col min="16" max="16" width="20.140625" customWidth="1"/>
     <col min="17" max="17" width="17.85546875" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3372,12 +3406,15 @@
       <c r="R2" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="S2" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>584</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3426,10 +3463,13 @@
       <c r="R3" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
+      <c r="S3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3478,10 +3518,13 @@
       <c r="R4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
+      <c r="S4" s="80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3542,13 +3585,17 @@
         <v>0.96404109589041098</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5" si="6">($A$3-R4)/$A$3</f>
+        <f t="shared" ref="R5:S5" si="6">($A$3-R4)/$A$3</f>
         <v>0.97773972602739723</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="S5" s="2">
+        <f t="shared" si="6"/>
+        <v>0.9845890410958904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3597,10 +3644,13 @@
       <c r="R6" s="1">
         <v>446</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
+      <c r="S6" s="80">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3609,7 +3659,7 @@
         <v>2.5684931506849314E-2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:R7" si="7">($A$3-E6)/$A$3</f>
+        <f t="shared" ref="E7:S7" si="7">($A$3-E6)/$A$3</f>
         <v>8.7328767123287673E-2</v>
       </c>
       <c r="F7" s="2">
@@ -3664,12 +3714,16 @@
         <f t="shared" si="7"/>
         <v>0.2363013698630137</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="S7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26198630136986301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="52">
         <v>980</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3719,9 +3773,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3770,10 +3824,13 @@
       <c r="R9" s="16">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
+      <c r="S9" s="81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3838,9 +3895,9 @@
         <v>0.98061224489795917</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3889,10 +3946,13 @@
       <c r="R11" s="16">
         <v>581</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
+      <c r="S11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -3957,11 +4017,11 @@
         <v>0.40714285714285714</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>1280</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4011,9 +4071,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -4062,10 +4122,13 @@
       <c r="R14" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
+      <c r="S14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -4130,9 +4193,9 @@
         <v>0.98203125000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4181,10 +4244,13 @@
       <c r="R16" s="4">
         <v>593</v>
       </c>
+      <c r="S16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -4250,10 +4316,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="58">
         <v>1345</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -4307,8 +4373,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4357,13 +4423,16 @@
       <c r="R19" s="7">
         <v>25</v>
       </c>
+      <c r="S19" t="s">
+        <v>87</v>
+      </c>
       <c r="T19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4429,8 +4498,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4479,10 +4548,13 @@
       <c r="R21" s="26">
         <v>592</v>
       </c>
+      <c r="S21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4548,90 +4620,231 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="84">
         <v>1640</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="83"/>
+      <c r="F23" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25" t="s">
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25" t="s">
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="R23" s="25"/>
+      <c r="R23" s="83"/>
+      <c r="S23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="82">
+        <v>208</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82">
+        <v>131</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82">
+        <v>81</v>
+      </c>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82">
+        <v>48</v>
+      </c>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="90">
+        <f>($A$23-D24)/$A$23</f>
+        <v>0.87317073170731707</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="90">
+        <f>($A$23-F24)/$A$23</f>
+        <v>0.92012195121951224</v>
+      </c>
+      <c r="G25" s="90">
+        <f t="shared" ref="G25:M25" si="14">($A$23-G24)/$A$23</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="90">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="90">
+        <f t="shared" si="14"/>
+        <v>0.95060975609756093</v>
+      </c>
+      <c r="J25" s="90">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="90">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="90">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="90">
+        <f t="shared" si="14"/>
+        <v>0.97073170731707314</v>
+      </c>
+      <c r="N25" s="90">
+        <f t="shared" ref="N25" si="15">($A$23-N24)/$A$23</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="90">
+        <f t="shared" ref="O25" si="16">($A$23-O24)/$A$23</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="90">
+        <f t="shared" ref="P25" si="17">($A$23-P24)/$A$23</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="90">
+        <f t="shared" ref="Q25" si="18">($A$23-Q24)/$A$23</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="90">
+        <f t="shared" ref="R25" si="19">($A$23-R24)/$A$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="82">
+        <v>1581</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82">
+        <v>1539</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82">
+        <v>1524</v>
+      </c>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82">
+        <v>1318</v>
+      </c>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="90">
+        <f>($A$23-D26)/$A$23</f>
+        <v>3.5975609756097558E-2</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="90">
+        <f>($A$23-F26)/$A$23</f>
+        <v>6.1585365853658536E-2</v>
+      </c>
+      <c r="G27" s="90">
+        <f t="shared" ref="G27:R27" si="20">($A$23-G26)/$A$23</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="90">
+        <f t="shared" si="20"/>
+        <v>7.0731707317073164E-2</v>
+      </c>
+      <c r="J27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="90">
+        <f t="shared" si="20"/>
+        <v>0.19634146341463415</v>
+      </c>
+      <c r="N27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="S28" s="29" t="s">
         <v>56</v>
       </c>
@@ -4642,1396 +4855,1448 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="46">
         <v>584</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="1" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D34" s="1">
         <v>2.1028000000000002E-2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E34" s="1">
         <v>1.7195999999999999E-2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F34" s="1">
         <v>1.3664000000000001E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G34" s="1">
         <v>1.5587999999999999E-2</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H34" s="1">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I34" s="1">
         <v>1.0004000000000001E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J34" s="1">
         <v>1.5011999999999999E-2</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K34" s="1">
         <v>1.1136E-2</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L34" s="1">
         <v>9.1599999999999997E-3</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M34" s="1">
         <v>8.7279999999999996E-3</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N34" s="1">
         <v>1.5744000000000001E-2</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O34" s="1">
         <v>1.1552E-2</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P34" s="1">
         <v>9.4400000000000005E-3</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q34" s="1">
         <v>8.5039999999999994E-3</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R34" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="1" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D35" s="1">
         <v>7.2519999999999998E-3</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E35" s="1">
         <v>7.404E-3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F35" s="1">
         <v>4.5640000000000003E-3</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G35" s="1">
         <v>7.5799999999999999E-3</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H35" s="1">
         <v>4.6839999999999998E-3</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I35" s="1">
         <v>3.6480000000000002E-3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J35" s="1">
         <v>7.7640000000000001E-3</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K35" s="1">
         <v>5.2319999999999997E-3</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L35" s="1">
         <v>3.7160000000000001E-3</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M35" s="1">
         <v>3.1800000000000001E-3</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N35" s="1">
         <v>7.9920000000000008E-3</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O35" s="1">
         <v>5.7600000000000004E-3</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P35" s="1">
         <v>3.82E-3</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q35" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R35" s="1">
         <v>2.944E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="19" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="19">
-        <f>D29+D30</f>
+      <c r="D36" s="19">
+        <f>D34+D35</f>
         <v>2.828E-2</v>
       </c>
-      <c r="E31" s="19">
-        <f t="shared" ref="E31:R31" si="14">E29+E30</f>
+      <c r="E36" s="19">
+        <f t="shared" ref="E36:R36" si="21">E34+E35</f>
         <v>2.46E-2</v>
       </c>
-      <c r="F31" s="19">
-        <f t="shared" si="14"/>
+      <c r="F36" s="19">
+        <f t="shared" si="21"/>
         <v>1.8228000000000001E-2</v>
       </c>
-      <c r="G31" s="19">
-        <f t="shared" si="14"/>
+      <c r="G36" s="19">
+        <f t="shared" si="21"/>
         <v>2.3168000000000001E-2</v>
       </c>
-      <c r="H31" s="19">
-        <f t="shared" si="14"/>
+      <c r="H36" s="19">
+        <f t="shared" si="21"/>
         <v>1.6584000000000002E-2</v>
       </c>
-      <c r="I31" s="19">
-        <f>I29+I30</f>
+      <c r="I36" s="19">
+        <f>I34+I35</f>
         <v>1.3652000000000001E-2</v>
       </c>
-      <c r="J31" s="19">
-        <f t="shared" si="14"/>
+      <c r="J36" s="19">
+        <f t="shared" si="21"/>
         <v>2.2775999999999998E-2</v>
       </c>
-      <c r="K31" s="19">
-        <f>K29+K30</f>
+      <c r="K36" s="19">
+        <f>K34+K35</f>
         <v>1.6368000000000001E-2</v>
       </c>
-      <c r="L31" s="19">
-        <f t="shared" si="14"/>
+      <c r="L36" s="19">
+        <f t="shared" si="21"/>
         <v>1.2876E-2</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" si="14"/>
+      <c r="M36" s="19">
+        <f t="shared" si="21"/>
         <v>1.1908E-2</v>
       </c>
-      <c r="N31" s="19">
-        <f t="shared" si="14"/>
+      <c r="N36" s="19">
+        <f t="shared" si="21"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="O31" s="19">
-        <f t="shared" si="14"/>
+      <c r="O36" s="19">
+        <f t="shared" si="21"/>
         <v>1.7312000000000001E-2</v>
       </c>
-      <c r="P31" s="19">
-        <f t="shared" si="14"/>
+      <c r="P36" s="19">
+        <f t="shared" si="21"/>
         <v>1.3260000000000001E-2</v>
       </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="14"/>
+      <c r="Q36" s="19">
+        <f t="shared" si="21"/>
         <v>1.1751999999999999E-2</v>
       </c>
-      <c r="R31" s="19">
-        <f t="shared" si="14"/>
+      <c r="R36" s="19">
+        <f t="shared" si="21"/>
         <v>1.1024000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="1" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D37" s="1">
         <v>6.1112E-2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E37" s="1">
         <v>4.9868000000000003E-2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F37" s="1">
         <v>5.3887999999999998E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G37" s="1">
         <v>4.7328000000000002E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H37" s="1">
         <v>4.7983999999999999E-2</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I37" s="1">
         <v>5.2519999999999997E-2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J37" s="1">
         <v>4.7480000000000001E-2</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K37" s="1">
         <v>4.8259999999999997E-2</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L37" s="1">
         <v>4.8807999999999997E-2</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M37" s="1">
         <v>5.1184E-2</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N37" s="1">
         <v>4.2540000000000001E-2</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O37" s="1">
         <v>4.1284000000000001E-2</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P37" s="1">
         <v>4.1439999999999998E-2</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q37" s="1">
         <v>4.1744000000000003E-2</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R37" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="1" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D38" s="1">
         <v>2.1187999999999999E-2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E38" s="1">
         <v>2.0587999999999999E-2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F38" s="1">
         <v>2.0572E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G38" s="1">
         <v>2.0175999999999999E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H38" s="1">
         <v>2.0175999999999999E-2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I38" s="1">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J38" s="1">
         <v>2.0292000000000001E-2</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K38" s="1">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L38" s="1">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M38" s="1">
         <v>2.0671999999999999E-2</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N38" s="1">
         <v>1.7864000000000001E-2</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O38" s="1">
         <v>1.7448000000000002E-2</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P38" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q38" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R38" s="1">
         <v>1.7288000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="19" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="19">
-        <f>D32+D33</f>
+      <c r="D39" s="19">
+        <f>D37+D38</f>
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="E34" s="19">
-        <f t="shared" ref="E34:R34" si="15">E32+E33</f>
+      <c r="E39" s="19">
+        <f t="shared" ref="E39:R39" si="22">E37+E38</f>
         <v>7.0456000000000005E-2</v>
       </c>
-      <c r="F34" s="19">
-        <f t="shared" si="15"/>
+      <c r="F39" s="19">
+        <f t="shared" si="22"/>
         <v>7.4459999999999998E-2</v>
       </c>
-      <c r="G34" s="19">
-        <f t="shared" si="15"/>
+      <c r="G39" s="19">
+        <f t="shared" si="22"/>
         <v>6.7504000000000008E-2</v>
       </c>
-      <c r="H34" s="19">
-        <f t="shared" si="15"/>
+      <c r="H39" s="19">
+        <f t="shared" si="22"/>
         <v>6.8159999999999998E-2</v>
       </c>
-      <c r="I34" s="19">
-        <f t="shared" si="15"/>
+      <c r="I39" s="19">
+        <f t="shared" si="22"/>
         <v>7.2819999999999996E-2</v>
       </c>
-      <c r="J34" s="19">
-        <f>J32+J33</f>
+      <c r="J39" s="19">
+        <f>J37+J38</f>
         <v>6.7771999999999999E-2</v>
       </c>
-      <c r="K34" s="19">
-        <f t="shared" si="15"/>
+      <c r="K39" s="19">
+        <f t="shared" si="22"/>
         <v>6.8559999999999996E-2</v>
       </c>
-      <c r="L34" s="19">
-        <f t="shared" si="15"/>
+      <c r="L39" s="19">
+        <f t="shared" si="22"/>
         <v>6.9307999999999995E-2</v>
       </c>
-      <c r="M34" s="19">
-        <f t="shared" si="15"/>
+      <c r="M39" s="19">
+        <f t="shared" si="22"/>
         <v>7.1856000000000003E-2</v>
       </c>
-      <c r="N34" s="19">
-        <f t="shared" si="15"/>
+      <c r="N39" s="19">
+        <f t="shared" si="22"/>
         <v>6.0403999999999999E-2</v>
       </c>
-      <c r="O34" s="19">
-        <f t="shared" si="15"/>
+      <c r="O39" s="19">
+        <f t="shared" si="22"/>
         <v>5.8732000000000006E-2</v>
       </c>
-      <c r="P34" s="19">
-        <f t="shared" si="15"/>
+      <c r="P39" s="19">
+        <f t="shared" si="22"/>
         <v>5.8768000000000001E-2</v>
       </c>
-      <c r="Q34" s="19">
-        <f t="shared" si="15"/>
+      <c r="Q39" s="19">
+        <f t="shared" si="22"/>
         <v>5.9072E-2</v>
       </c>
-      <c r="R34" s="19">
-        <f t="shared" si="15"/>
+      <c r="R39" s="19">
+        <f t="shared" si="22"/>
         <v>6.3224000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="52">
         <v>980</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="16" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D40" s="16">
         <v>3.5128E-2</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E40" s="16">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F40" s="16">
         <v>2.2716E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G40" s="16">
         <v>2.5568E-2</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H40" s="16">
         <v>1.932E-2</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I40" s="16">
         <v>1.6028000000000001E-2</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J40" s="16">
         <v>2.4548E-2</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K40" s="16">
         <v>1.7964000000000001E-2</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L40" s="16">
         <v>1.4524E-2</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M40" s="16">
         <v>1.3391999999999999E-2</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N40" s="16">
         <v>2.4775999999999999E-2</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O40" s="16">
         <v>1.7624000000000001E-2</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P40" s="16">
         <v>1.3996E-2</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q40" s="16">
         <v>1.3268E-2</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R40" s="16">
         <v>1.2456E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="16" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D41" s="16">
         <v>1.2004000000000001E-2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E41" s="16">
         <v>1.2296E-2</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F41" s="16">
         <v>8.9280000000000002E-3</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G41" s="16">
         <v>1.2567999999999999E-2</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H41" s="16">
         <v>9.0840000000000001E-3</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I41" s="16">
         <v>5.9040000000000004E-3</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J41" s="16">
         <v>1.2884E-2</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K41" s="16">
         <v>9.2519999999999998E-3</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L41" s="16">
         <v>5.9959999999999996E-3</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M41" s="16">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N41" s="16">
         <v>1.3224E-2</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O41" s="16">
         <v>9.4359999999999999E-3</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P41" s="16">
         <v>6.6319999999999999E-3</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q41" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R41" s="16">
         <v>4.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="19" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="19">
-        <f>D35+D36</f>
+      <c r="D42" s="19">
+        <f>D40+D41</f>
         <v>4.7132E-2</v>
       </c>
-      <c r="E37" s="19">
-        <f t="shared" ref="E37:R37" si="16">E35+E36</f>
+      <c r="E42" s="19">
+        <f t="shared" ref="E42:R42" si="23">E40+E41</f>
         <v>4.0696000000000003E-2</v>
       </c>
-      <c r="F37" s="19">
-        <f t="shared" si="16"/>
+      <c r="F42" s="19">
+        <f t="shared" si="23"/>
         <v>3.1643999999999999E-2</v>
       </c>
-      <c r="G37" s="19">
-        <f t="shared" si="16"/>
+      <c r="G42" s="19">
+        <f t="shared" si="23"/>
         <v>3.8136000000000003E-2</v>
       </c>
-      <c r="H37" s="19">
-        <f t="shared" si="16"/>
+      <c r="H42" s="19">
+        <f t="shared" si="23"/>
         <v>2.8403999999999999E-2</v>
       </c>
-      <c r="I37" s="19">
-        <f t="shared" si="16"/>
+      <c r="I42" s="19">
+        <f t="shared" si="23"/>
         <v>2.1932E-2</v>
       </c>
-      <c r="J37" s="19">
-        <f t="shared" si="16"/>
+      <c r="J42" s="19">
+        <f t="shared" si="23"/>
         <v>3.7432E-2</v>
       </c>
-      <c r="K37" s="19">
-        <f t="shared" si="16"/>
+      <c r="K42" s="19">
+        <f t="shared" si="23"/>
         <v>2.7216000000000001E-2</v>
       </c>
-      <c r="L37" s="19">
-        <f t="shared" si="16"/>
+      <c r="L42" s="19">
+        <f t="shared" si="23"/>
         <v>2.052E-2</v>
       </c>
-      <c r="M37" s="19">
-        <f t="shared" si="16"/>
+      <c r="M42" s="19">
+        <f t="shared" si="23"/>
         <v>1.8492000000000001E-2</v>
       </c>
-      <c r="N37" s="19">
-        <f t="shared" si="16"/>
+      <c r="N42" s="19">
+        <f t="shared" si="23"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O37" s="19">
-        <f t="shared" si="16"/>
+      <c r="O42" s="19">
+        <f t="shared" si="23"/>
         <v>2.7060000000000001E-2</v>
       </c>
-      <c r="P37" s="19">
-        <f t="shared" si="16"/>
+      <c r="P42" s="19">
+        <f t="shared" si="23"/>
         <v>2.0628000000000001E-2</v>
       </c>
-      <c r="Q37" s="19">
-        <f t="shared" si="16"/>
+      <c r="Q42" s="19">
+        <f t="shared" si="23"/>
         <v>1.8467999999999998E-2</v>
       </c>
-      <c r="R37" s="19">
-        <f t="shared" si="16"/>
+      <c r="R42" s="19">
+        <f t="shared" si="23"/>
         <v>1.7132000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="16" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D43" s="16">
         <v>0.102136</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E43" s="16">
         <v>8.4159999999999999E-2</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F43" s="16">
         <v>9.1095999999999996E-2</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G43" s="16">
         <v>7.9808000000000004E-2</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H43" s="16">
         <v>8.1888000000000002E-2</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I43" s="16">
         <v>8.6596000000000006E-2</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J43" s="16">
         <v>8.0944000000000002E-2</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K43" s="16">
         <v>8.2072000000000006E-2</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L43" s="16">
         <v>8.3428000000000002E-2</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M43" s="16">
         <v>8.8356000000000004E-2</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N43" s="16">
         <v>6.1004000000000003E-2</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O43" s="16">
         <v>5.7644000000000001E-2</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P43" s="16">
         <v>5.7751999999999998E-2</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q43" s="16">
         <v>5.7507999999999997E-2</v>
       </c>
-      <c r="R38" s="16">
+      <c r="R43" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="16" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D44" s="16">
         <v>3.5228000000000002E-2</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E44" s="16">
         <v>3.4583999999999997E-2</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F44" s="16">
         <v>3.4680000000000002E-2</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G44" s="16">
         <v>3.4335999999999998E-2</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H44" s="16">
         <v>3.4383999999999998E-2</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I44" s="16">
         <v>3.4556000000000003E-2</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J44" s="16">
         <v>3.4507999999999997E-2</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K44" s="16">
         <v>3.4604000000000003E-2</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L44" s="16">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M44" s="16">
         <v>3.4079999999999999E-2</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N44" s="16">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O44" s="16">
         <v>2.4688000000000002E-2</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P44" s="16">
         <v>2.4039999999999999E-2</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q44" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="R39" s="16">
+      <c r="R44" s="16">
         <v>2.3528E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="19" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="19">
-        <f>D38+D39</f>
+      <c r="D45" s="19">
+        <f>D43+D44</f>
         <v>0.13736400000000001</v>
       </c>
-      <c r="E40" s="19">
-        <f t="shared" ref="E40:R40" si="17">E38+E39</f>
+      <c r="E45" s="19">
+        <f t="shared" ref="E45:R45" si="24">E43+E44</f>
         <v>0.11874399999999999</v>
       </c>
-      <c r="F40" s="19">
-        <f t="shared" si="17"/>
+      <c r="F45" s="19">
+        <f t="shared" si="24"/>
         <v>0.125776</v>
       </c>
-      <c r="G40" s="19">
-        <f t="shared" si="17"/>
+      <c r="G45" s="19">
+        <f t="shared" si="24"/>
         <v>0.114144</v>
       </c>
-      <c r="H40" s="19">
-        <f t="shared" si="17"/>
+      <c r="H45" s="19">
+        <f t="shared" si="24"/>
         <v>0.116272</v>
       </c>
-      <c r="I40" s="19">
-        <f t="shared" si="17"/>
+      <c r="I45" s="19">
+        <f t="shared" si="24"/>
         <v>0.12115200000000001</v>
       </c>
-      <c r="J40" s="19">
-        <f t="shared" si="17"/>
+      <c r="J45" s="19">
+        <f t="shared" si="24"/>
         <v>0.115452</v>
       </c>
-      <c r="K40" s="19">
-        <f t="shared" si="17"/>
+      <c r="K45" s="19">
+        <f t="shared" si="24"/>
         <v>0.116676</v>
       </c>
-      <c r="L40" s="19">
-        <f t="shared" si="17"/>
+      <c r="L45" s="19">
+        <f t="shared" si="24"/>
         <v>0.11824000000000001</v>
       </c>
-      <c r="M40" s="19">
-        <f t="shared" si="17"/>
+      <c r="M45" s="19">
+        <f t="shared" si="24"/>
         <v>0.122436</v>
       </c>
-      <c r="N40" s="19">
-        <f t="shared" si="17"/>
+      <c r="N45" s="19">
+        <f t="shared" si="24"/>
         <v>8.7148000000000003E-2</v>
       </c>
-      <c r="O40" s="19">
-        <f t="shared" si="17"/>
+      <c r="O45" s="19">
+        <f t="shared" si="24"/>
         <v>8.2332000000000002E-2</v>
       </c>
-      <c r="P40" s="19">
-        <f t="shared" si="17"/>
+      <c r="P45" s="19">
+        <f t="shared" si="24"/>
         <v>8.1792000000000004E-2</v>
       </c>
-      <c r="Q40" s="19">
-        <f t="shared" si="17"/>
+      <c r="Q45" s="19">
+        <f t="shared" si="24"/>
         <v>8.1276000000000001E-2</v>
       </c>
-      <c r="R40" s="19">
-        <f t="shared" si="17"/>
+      <c r="R45" s="19">
+        <f t="shared" si="24"/>
         <v>8.6648000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="53">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
         <v>1280</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="4" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D46" s="4">
         <v>4.5724000000000001E-2</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E46" s="4">
         <v>3.7047999999999998E-2</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F46" s="4">
         <v>2.9187999999999999E-2</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G46" s="4">
         <v>3.3236000000000002E-2</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H46" s="4">
         <v>2.5007999999999999E-2</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I46" s="4">
         <v>2.0747999999999999E-2</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J46" s="4">
         <v>3.2039999999999999E-2</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K46" s="4">
         <v>2.3415999999999999E-2</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L46" s="4">
         <v>1.8967999999999999E-2</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M46" s="4">
         <v>1.6704E-2</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N46" s="4">
         <v>3.2548000000000001E-2</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O46" s="4">
         <v>2.3188E-2</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P46" s="4">
         <v>1.8508E-2</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q46" s="4">
         <v>1.6336E-2</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R46" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="4" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D47" s="4">
         <v>1.558E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E47" s="4">
         <v>1.5952000000000001E-2</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F47" s="4">
         <v>1.1552E-2</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G47" s="4">
         <v>1.6327999999999999E-2</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H47" s="4">
         <v>1.1724E-2</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I47" s="4">
         <v>9.3480000000000004E-3</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J47" s="4">
         <v>1.6716000000000002E-2</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K47" s="4">
         <v>1.192E-2</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L47" s="4">
         <v>9.476E-3</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M47" s="4">
         <v>6.5120000000000004E-3</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N47" s="4">
         <v>1.7144E-2</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O47" s="4">
         <v>1.2192E-2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P47" s="4">
         <v>9.6279999999999994E-3</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q47" s="4">
         <v>6.6160000000000004E-3</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R47" s="4">
         <v>5.9719999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="19" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="19">
-        <f>D41+D42</f>
+      <c r="D48" s="19">
+        <f>D46+D47</f>
         <v>6.1303999999999997E-2</v>
       </c>
-      <c r="E43" s="19">
-        <f t="shared" ref="E43:R43" si="18">E41+E42</f>
+      <c r="E48" s="19">
+        <f t="shared" ref="E48:R48" si="25">E46+E47</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F43" s="19">
-        <f t="shared" si="18"/>
+      <c r="F48" s="19">
+        <f t="shared" si="25"/>
         <v>4.0739999999999998E-2</v>
       </c>
-      <c r="G43" s="19">
-        <f t="shared" si="18"/>
+      <c r="G48" s="19">
+        <f t="shared" si="25"/>
         <v>4.9563999999999997E-2</v>
       </c>
-      <c r="H43" s="19">
-        <f t="shared" si="18"/>
+      <c r="H48" s="19">
+        <f t="shared" si="25"/>
         <v>3.6732000000000001E-2</v>
       </c>
-      <c r="I43" s="19">
-        <f t="shared" si="18"/>
+      <c r="I48" s="19">
+        <f t="shared" si="25"/>
         <v>3.0095999999999998E-2</v>
       </c>
-      <c r="J43" s="19">
-        <f t="shared" si="18"/>
+      <c r="J48" s="19">
+        <f t="shared" si="25"/>
         <v>4.8756000000000001E-2</v>
       </c>
-      <c r="K43" s="19">
-        <f t="shared" si="18"/>
+      <c r="K48" s="19">
+        <f t="shared" si="25"/>
         <v>3.5335999999999999E-2</v>
       </c>
-      <c r="L43" s="19">
-        <f t="shared" si="18"/>
+      <c r="L48" s="19">
+        <f t="shared" si="25"/>
         <v>2.8443999999999997E-2</v>
       </c>
-      <c r="M43" s="19">
-        <f t="shared" si="18"/>
+      <c r="M48" s="19">
+        <f t="shared" si="25"/>
         <v>2.3216000000000001E-2</v>
       </c>
-      <c r="N43" s="19">
-        <f t="shared" si="18"/>
+      <c r="N48" s="19">
+        <f t="shared" si="25"/>
         <v>4.9692E-2</v>
       </c>
-      <c r="O43" s="19">
-        <f t="shared" si="18"/>
+      <c r="O48" s="19">
+        <f t="shared" si="25"/>
         <v>3.5380000000000002E-2</v>
       </c>
-      <c r="P43" s="19">
-        <f t="shared" si="18"/>
+      <c r="P48" s="19">
+        <f t="shared" si="25"/>
         <v>2.8136000000000001E-2</v>
       </c>
-      <c r="Q43" s="19">
-        <f t="shared" si="18"/>
+      <c r="Q48" s="19">
+        <f t="shared" si="25"/>
         <v>2.2952E-2</v>
       </c>
-      <c r="R43" s="19">
-        <f t="shared" si="18"/>
+      <c r="R48" s="19">
+        <f t="shared" si="25"/>
         <v>2.1271999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="4" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D49" s="4">
         <v>0.13236000000000001</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E49" s="4">
         <v>0.109384</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F49" s="4">
         <v>0.11812400000000001</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G49" s="4">
         <v>0.104228</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H49" s="4">
         <v>0.10616399999999999</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I49" s="4">
         <v>0.113096</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J49" s="4">
         <v>0.102812</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K49" s="4">
         <v>0.103452</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L49" s="4">
         <v>0.105112</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M49" s="4">
         <v>0.111024</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N49" s="4">
         <v>7.0571999999999996E-2</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O49" s="4">
         <v>6.4336000000000004E-2</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P49" s="4">
         <v>6.2216E-2</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q49" s="4">
         <v>6.1443999999999999E-2</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R49" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="4" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D50" s="4">
         <v>4.5443999999999998E-2</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E50" s="4">
         <v>4.4875999999999999E-2</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F50" s="4">
         <v>4.4943999999999998E-2</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G50" s="4">
         <v>4.4631999999999998E-2</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H50" s="4">
         <v>4.4667999999999999E-2</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I50" s="4">
         <v>4.4847999999999999E-2</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J50" s="4">
         <v>4.3616000000000002E-2</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K50" s="4">
         <v>4.3456000000000002E-2</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L50" s="4">
         <v>4.3580000000000001E-2</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M50" s="4">
         <v>4.3816000000000001E-2</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N50" s="4">
         <v>3.0224000000000001E-2</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O50" s="4">
         <v>2.7675999999999999E-2</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P50" s="4">
         <v>2.6436000000000001E-2</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q50" s="4">
         <v>2.5876E-2</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R50" s="4">
         <v>2.5492000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="19" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="19">
-        <f>D44+D45</f>
+      <c r="D51" s="19">
+        <f>D49+D50</f>
         <v>0.17780400000000002</v>
       </c>
-      <c r="E46" s="19">
-        <f t="shared" ref="E46:R46" si="19">E44+E45</f>
+      <c r="E51" s="19">
+        <f t="shared" ref="E51:R51" si="26">E49+E50</f>
         <v>0.15426000000000001</v>
       </c>
-      <c r="F46" s="19">
-        <f t="shared" si="19"/>
+      <c r="F51" s="19">
+        <f t="shared" si="26"/>
         <v>0.16306799999999999</v>
       </c>
-      <c r="G46" s="19">
-        <f t="shared" si="19"/>
+      <c r="G51" s="19">
+        <f t="shared" si="26"/>
         <v>0.14885999999999999</v>
       </c>
-      <c r="H46" s="19">
-        <f t="shared" si="19"/>
+      <c r="H51" s="19">
+        <f t="shared" si="26"/>
         <v>0.15083199999999999</v>
       </c>
-      <c r="I46" s="19">
-        <f t="shared" si="19"/>
+      <c r="I51" s="19">
+        <f t="shared" si="26"/>
         <v>0.157944</v>
       </c>
-      <c r="J46" s="19">
-        <f t="shared" si="19"/>
+      <c r="J51" s="19">
+        <f t="shared" si="26"/>
         <v>0.146428</v>
       </c>
-      <c r="K46" s="19">
-        <f t="shared" si="19"/>
+      <c r="K51" s="19">
+        <f t="shared" si="26"/>
         <v>0.14690800000000001</v>
       </c>
-      <c r="L46" s="19">
-        <f t="shared" si="19"/>
+      <c r="L51" s="19">
+        <f t="shared" si="26"/>
         <v>0.14869199999999999</v>
       </c>
-      <c r="M46" s="19">
-        <f t="shared" si="19"/>
+      <c r="M51" s="19">
+        <f t="shared" si="26"/>
         <v>0.15484000000000001</v>
       </c>
-      <c r="N46" s="19">
-        <f t="shared" si="19"/>
+      <c r="N51" s="19">
+        <f t="shared" si="26"/>
         <v>0.100796</v>
       </c>
-      <c r="O46" s="19">
-        <f t="shared" si="19"/>
+      <c r="O51" s="19">
+        <f t="shared" si="26"/>
         <v>9.201200000000001E-2</v>
       </c>
-      <c r="P46" s="19">
-        <f t="shared" si="19"/>
+      <c r="P51" s="19">
+        <f t="shared" si="26"/>
         <v>8.8652000000000009E-2</v>
       </c>
-      <c r="Q46" s="19">
-        <f t="shared" si="19"/>
+      <c r="Q51" s="19">
+        <f t="shared" si="26"/>
         <v>8.7319999999999995E-2</v>
       </c>
-      <c r="R46" s="19">
-        <f t="shared" si="19"/>
+      <c r="R51" s="19">
+        <f t="shared" si="26"/>
         <v>9.2336000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="58">
         <v>1345</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="7" t="s">
+      <c r="B52" s="59"/>
+      <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D52" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E52" s="7">
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F52" s="7">
         <v>3.0632E-2</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G52" s="7">
         <v>3.4863999999999999E-2</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H52" s="7">
         <v>2.622E-2</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I52" s="7">
         <v>2.1752000000000001E-2</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J52" s="7">
         <v>3.32E-2</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K52" s="7">
         <v>2.426E-2</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L52" s="7">
         <v>1.9584000000000001E-2</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M52" s="7">
         <v>1.7176E-2</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N52" s="7">
         <v>3.3868000000000002E-2</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O52" s="7">
         <v>2.4052E-2</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P52" s="7">
         <v>1.9103999999999999E-2</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q52" s="7">
         <v>1.6844000000000001E-2</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R52" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="7" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D53" s="7">
         <v>1.6407999999999999E-2</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E53" s="7">
         <v>1.6740000000000001E-2</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F53" s="7">
         <v>1.2156E-2</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G53" s="7">
         <v>1.7135999999999998E-2</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H53" s="7">
         <v>1.2307999999999999E-2</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I53" s="7">
         <v>9.8840000000000004E-3</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J53" s="7">
         <v>1.7544000000000001E-2</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K53" s="7">
         <v>1.2536E-2</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L53" s="7">
         <v>9.9319999999999999E-3</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M53" s="7">
         <v>6.8079999999999998E-3</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N53" s="7">
         <v>1.7984E-2</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O53" s="7">
         <v>1.2784E-2</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P53" s="7">
         <v>1.0096000000000001E-2</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q53" s="7">
         <v>6.9360000000000003E-3</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R53" s="7">
         <v>6.2960000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="19" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="19">
-        <f>D47+D48</f>
+      <c r="D54" s="19">
+        <f>D52+D53</f>
         <v>6.4407999999999993E-2</v>
       </c>
-      <c r="E49" s="19">
-        <f t="shared" ref="E49:R49" si="20">E47+E48</f>
+      <c r="E54" s="19">
+        <f t="shared" ref="E54:R54" si="27">E52+E53</f>
         <v>5.5620000000000003E-2</v>
       </c>
-      <c r="F49" s="19">
-        <f t="shared" si="20"/>
+      <c r="F54" s="19">
+        <f t="shared" si="27"/>
         <v>4.2788E-2</v>
       </c>
-      <c r="G49" s="19">
-        <f t="shared" si="20"/>
+      <c r="G54" s="19">
+        <f t="shared" si="27"/>
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H49" s="19">
-        <f t="shared" si="20"/>
+      <c r="H54" s="19">
+        <f t="shared" si="27"/>
         <v>3.8528E-2</v>
       </c>
-      <c r="I49" s="19">
-        <f t="shared" si="20"/>
+      <c r="I54" s="19">
+        <f t="shared" si="27"/>
         <v>3.1635999999999997E-2</v>
       </c>
-      <c r="J49" s="19">
-        <f t="shared" si="20"/>
+      <c r="J54" s="19">
+        <f t="shared" si="27"/>
         <v>5.0743999999999997E-2</v>
       </c>
-      <c r="K49" s="19">
-        <f t="shared" si="20"/>
+      <c r="K54" s="19">
+        <f t="shared" si="27"/>
         <v>3.6796000000000002E-2</v>
       </c>
-      <c r="L49" s="19">
-        <f t="shared" si="20"/>
+      <c r="L54" s="19">
+        <f t="shared" si="27"/>
         <v>2.9516000000000001E-2</v>
       </c>
-      <c r="M49" s="19">
-        <f t="shared" si="20"/>
+      <c r="M54" s="19">
+        <f t="shared" si="27"/>
         <v>2.3983999999999998E-2</v>
       </c>
-      <c r="N49" s="19">
-        <f t="shared" si="20"/>
+      <c r="N54" s="19">
+        <f t="shared" si="27"/>
         <v>5.1852000000000002E-2</v>
       </c>
-      <c r="O49" s="19">
-        <f t="shared" si="20"/>
+      <c r="O54" s="19">
+        <f t="shared" si="27"/>
         <v>3.6836000000000001E-2</v>
       </c>
-      <c r="P49" s="19">
-        <f t="shared" si="20"/>
+      <c r="P54" s="19">
+        <f t="shared" si="27"/>
         <v>2.92E-2</v>
       </c>
-      <c r="Q49" s="19">
-        <f t="shared" si="20"/>
+      <c r="Q54" s="19">
+        <f t="shared" si="27"/>
         <v>2.3780000000000003E-2</v>
       </c>
-      <c r="R49" s="19">
-        <f t="shared" si="20"/>
+      <c r="R54" s="19">
+        <f t="shared" si="27"/>
         <v>2.2103999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="7" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D55" s="7">
         <v>0.138604</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E55" s="7">
         <v>1.1446400000000001E-2</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F55" s="7">
         <v>0.124512</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G55" s="7">
         <v>0.109372</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H55" s="7">
         <v>0.11142000000000001</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I55" s="7">
         <v>0.11898</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J55" s="7">
         <v>0.108652</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K55" s="7">
         <v>0.10859199999999999</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L55" s="7">
         <v>0.11114</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M55" s="7">
         <v>0.11692</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N55" s="26">
         <v>7.0828000000000002E-2</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O55" s="26">
         <v>6.5355999999999997E-2</v>
       </c>
-      <c r="P50" s="26">
+      <c r="P55" s="26">
         <v>6.2848000000000001E-2</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="Q55" s="26">
         <v>6.2715999999999994E-2</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R55" s="26">
         <v>6.7227999999999996E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="7" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D56" s="7">
         <v>4.7668000000000002E-2</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E56" s="7">
         <v>4.7160000000000001E-2</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F56" s="7">
         <v>4.7224000000000002E-2</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G56" s="7">
         <v>4.6924E-2</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H56" s="7">
         <v>4.6955999999999998E-2</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I56" s="7">
         <v>4.7156000000000003E-2</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J56" s="7">
         <v>4.5887999999999998E-2</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K56" s="7">
         <v>4.5760000000000002E-2</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L56" s="7">
         <v>4.5887999999999998E-2</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M56" s="7">
         <v>4.6131999999999999E-2</v>
       </c>
-      <c r="N51" s="26">
+      <c r="N56" s="26">
         <v>3.0984000000000001E-2</v>
       </c>
-      <c r="O51" s="26">
+      <c r="O56" s="26">
         <v>2.8208E-2</v>
       </c>
-      <c r="P51" s="26">
+      <c r="P56" s="26">
         <v>2.6844E-2</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="Q56" s="26">
         <v>2.6211999999999999E-2</v>
       </c>
-      <c r="R51" s="26">
+      <c r="R56" s="26">
         <v>2.5832000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="19" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="19">
-        <f>D50+D51</f>
+      <c r="D57" s="19">
+        <f>D55+D56</f>
         <v>0.18627199999999999</v>
       </c>
-      <c r="E52" s="19">
-        <f t="shared" ref="E52:R52" si="21">E50+E51</f>
+      <c r="E57" s="19">
+        <f t="shared" ref="E57:R57" si="28">E55+E56</f>
         <v>5.8606400000000003E-2</v>
       </c>
-      <c r="F52" s="19">
-        <f t="shared" si="21"/>
+      <c r="F57" s="19">
+        <f t="shared" si="28"/>
         <v>0.171736</v>
       </c>
-      <c r="G52" s="19">
-        <f t="shared" si="21"/>
+      <c r="G57" s="19">
+        <f t="shared" si="28"/>
         <v>0.15629599999999999</v>
       </c>
-      <c r="H52" s="19">
-        <f t="shared" si="21"/>
+      <c r="H57" s="19">
+        <f t="shared" si="28"/>
         <v>0.15837600000000002</v>
       </c>
-      <c r="I52" s="19">
-        <f t="shared" si="21"/>
+      <c r="I57" s="19">
+        <f t="shared" si="28"/>
         <v>0.16613600000000001</v>
       </c>
-      <c r="J52" s="19">
-        <f t="shared" si="21"/>
+      <c r="J57" s="19">
+        <f t="shared" si="28"/>
         <v>0.15454000000000001</v>
       </c>
-      <c r="K52" s="19">
-        <f t="shared" si="21"/>
+      <c r="K57" s="19">
+        <f t="shared" si="28"/>
         <v>0.15435199999999999</v>
       </c>
-      <c r="L52" s="19">
-        <f t="shared" si="21"/>
+      <c r="L57" s="19">
+        <f t="shared" si="28"/>
         <v>0.157028</v>
       </c>
-      <c r="M52" s="19">
-        <f t="shared" si="21"/>
+      <c r="M57" s="19">
+        <f t="shared" si="28"/>
         <v>0.163052</v>
       </c>
-      <c r="N52" s="19">
-        <f t="shared" si="21"/>
+      <c r="N57" s="19">
+        <f t="shared" si="28"/>
         <v>0.101812</v>
       </c>
-      <c r="O52" s="19">
-        <f t="shared" si="21"/>
+      <c r="O57" s="19">
+        <f t="shared" si="28"/>
         <v>9.3563999999999994E-2</v>
       </c>
-      <c r="P52" s="19">
-        <f t="shared" si="21"/>
+      <c r="P57" s="19">
+        <f t="shared" si="28"/>
         <v>8.9691999999999994E-2</v>
       </c>
-      <c r="Q52" s="19">
-        <f t="shared" si="21"/>
+      <c r="Q57" s="19">
+        <f t="shared" si="28"/>
         <v>8.8927999999999993E-2</v>
       </c>
-      <c r="R52" s="19">
-        <f t="shared" si="21"/>
+      <c r="R57" s="19">
+        <f t="shared" si="28"/>
         <v>9.3060000000000004E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A47:B52"/>
+    <mergeCell ref="A52:B57"/>
     <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B34"/>
-    <mergeCell ref="A35:B40"/>
-    <mergeCell ref="A41:B46"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B39"/>
+    <mergeCell ref="A40:B45"/>
+    <mergeCell ref="A46:B51"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B7"/>
     <mergeCell ref="A8:B12"/>
     <mergeCell ref="A13:B17"/>
     <mergeCell ref="A18:B22"/>
+    <mergeCell ref="A23:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6112,7 +6377,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="65">
+      <c r="B8" s="75">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6133,7 +6398,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="65">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -6156,7 +6421,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6175,7 +6440,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="67"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -6201,7 +6466,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="62">
+      <c r="B10" s="76">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -6222,7 +6487,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -6243,7 +6508,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -6262,7 +6527,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="68"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -6288,7 +6553,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="63">
+      <c r="B12" s="77">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6309,7 +6574,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="68">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -6332,7 +6597,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -6351,7 +6616,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -6377,7 +6642,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="64">
+      <c r="B14" s="74">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -6398,7 +6663,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="70"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -6419,7 +6684,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -6438,7 +6703,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="71"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -6464,7 +6729,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="72">
+      <c r="L16" s="71">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -6487,7 +6752,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="73"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -6513,7 +6778,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="73"/>
+      <c r="L18" s="72"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -6534,7 +6799,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="74"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -6560,7 +6825,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="64">
+      <c r="L20" s="74">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -6583,7 +6848,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="64"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -6609,7 +6874,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="64"/>
+      <c r="L22" s="74"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6630,7 +6895,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="64"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -6684,7 +6949,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="65">
+      <c r="B31" s="75">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6707,7 +6972,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="65"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -6728,7 +6993,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="62">
+      <c r="B33" s="76">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -6751,7 +7016,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -6772,7 +7037,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="63">
+      <c r="B35" s="77">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6795,7 +7060,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -6816,7 +7081,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="64">
+      <c r="B37" s="74">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -6839,7 +7104,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="64"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -6861,11 +7126,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -6873,6 +7133,11 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6883,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D130C-42BE-4E6B-A6EF-80A1FFE77484}">
   <dimension ref="A5:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -6898,7 +7163,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -6924,7 +7189,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -6948,7 +7213,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -6972,7 +7237,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -6996,7 +7261,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -7020,7 +7285,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -7044,7 +7309,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="78" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -7070,7 +7335,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -7082,7 +7347,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -7092,11 +7357,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="76" t="s">
+      <c r="K16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -7108,7 +7373,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -7127,18 +7392,18 @@
       <c r="M17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="79" t="s">
+      <c r="P17" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="Q17" s="79" t="s">
+      <c r="Q17" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="R17" s="79" t="s">
+      <c r="R17" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -7148,27 +7413,27 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5"/>
-      <c r="K18" s="77">
+      <c r="K18" s="34">
         <v>1</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="78" t="s">
+      <c r="M18" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="79" t="s">
+      <c r="P18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="79" t="s">
+      <c r="Q18" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="R18" s="79" t="s">
+      <c r="R18" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{551FD951-755E-423B-89AC-FEAC3BF8BF45}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E503EDB-5B65-4D8E-AE4F-0D7D8A3F0023}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="88">
   <si>
     <t>0 x</t>
   </si>
@@ -683,32 +683,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,26 +747,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,49 +831,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,32 +1154,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="K2" s="43" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="K2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -1196,10 +1196,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="45"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -1218,10 +1218,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="49">
         <v>584</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="49">
         <v>584</v>
       </c>
-      <c r="L4" s="47"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1264,8 +1264,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1284,8 +1284,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1306,8 +1306,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1331,8 +1331,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1358,8 +1358,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1378,8 +1378,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1400,8 +1400,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1425,8 +1425,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1452,10 +1452,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>980</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1474,10 +1474,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="55">
         <v>980</v>
       </c>
-      <c r="L9" s="53"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1498,8 +1498,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1518,8 +1518,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1565,8 +1565,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1592,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1612,8 +1612,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1634,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1659,8 +1659,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1686,10 +1686,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="61">
         <v>1280</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1708,10 +1708,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="61">
         <v>1280</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1732,8 +1732,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1750,8 +1750,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1772,8 +1772,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1797,8 +1797,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1824,8 +1824,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1842,8 +1842,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1864,8 +1864,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1889,8 +1889,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1916,10 +1916,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="42">
         <v>1345</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="42">
         <v>1345</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1962,8 +1962,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1980,8 +1980,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -2002,8 +2002,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -2024,8 +2024,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -2051,8 +2051,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2069,8 +2069,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2089,8 +2089,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2111,8 +2111,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2135,10 +2135,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="64">
+      <c r="K24" s="48">
         <v>1640</v>
       </c>
-      <c r="L24" s="64"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -2159,10 +2159,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -2179,10 +2179,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="45"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -2201,10 +2201,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+      <c r="A29" s="49">
         <v>584</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2224,10 +2224,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="46">
+      <c r="K29" s="49">
         <v>584</v>
       </c>
-      <c r="L29" s="47"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2248,8 +2248,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2268,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2290,8 +2290,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2315,8 +2315,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2342,8 +2342,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2363,8 +2363,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="49"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2385,8 +2385,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="49"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2427,8 +2427,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2452,8 +2452,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2479,10 +2479,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="52">
+      <c r="A35" s="55">
         <v>980</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2502,10 +2502,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="52">
+      <c r="K35" s="55">
         <v>980</v>
       </c>
-      <c r="L35" s="53"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2526,8 +2526,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2546,8 +2546,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="55"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2568,8 +2568,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2593,8 +2593,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="55"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2620,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2641,8 +2641,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="55"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2663,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2683,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="54"/>
-      <c r="L39" s="55"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="58"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2705,8 +2705,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2730,8 +2730,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2757,10 +2757,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
+      <c r="A41" s="61">
         <v>1280</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2778,10 +2778,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="37">
+      <c r="K41" s="61">
         <v>1280</v>
       </c>
-      <c r="L41" s="38"/>
+      <c r="L41" s="62"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2802,8 +2802,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2820,8 +2820,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="40"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2842,8 +2842,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2864,8 +2864,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="40"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2891,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2910,8 +2910,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2932,8 +2932,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2950,8 +2950,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2972,8 +2972,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2994,8 +2994,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="66"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -3021,10 +3021,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
+      <c r="A47" s="42">
         <v>1345</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3042,10 +3042,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="58">
+      <c r="K47" s="42">
         <v>1345</v>
       </c>
-      <c r="L47" s="59"/>
+      <c r="L47" s="43"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -3084,8 +3084,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -3104,8 +3104,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3126,8 +3126,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="61"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3150,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3169,8 +3169,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="61"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3189,8 +3189,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3207,8 +3207,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="61"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3249,8 +3249,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="63"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3274,6 +3274,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3290,13 +3297,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3307,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,32 +3334,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3411,10 +3411,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="49">
         <v>584</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3468,8 +3468,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3518,13 +3518,13 @@
       <c r="R4" s="1">
         <v>13</v>
       </c>
-      <c r="S4" s="80">
+      <c r="S4" s="37">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3594,8 +3594,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3644,13 +3644,13 @@
       <c r="R6" s="1">
         <v>446</v>
       </c>
-      <c r="S6" s="80">
+      <c r="S6" s="37">
         <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3720,10 +3720,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="55">
         <v>980</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3774,8 +3774,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3824,13 +3824,13 @@
       <c r="R9" s="16">
         <v>19</v>
       </c>
-      <c r="S9" s="81">
+      <c r="S9" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3896,8 +3896,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3951,8 +3951,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -4018,10 +4018,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="61">
         <v>1280</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4072,8 +4072,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -4127,8 +4127,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -4194,8 +4194,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4249,8 +4249,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -4316,10 +4316,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="42">
         <v>1345</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -4373,8 +4373,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4431,8 +4431,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4498,8 +4498,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4553,8 +4553,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4620,226 +4620,229 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="70">
         <v>1640</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83" t="s">
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83" t="s">
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83" t="s">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="R23" s="83"/>
-      <c r="S23" t="s">
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="39">
+        <v>208</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39">
+        <v>131</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39">
+        <v>81</v>
+      </c>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39">
+        <v>48</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="82">
-        <v>208</v>
-      </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82">
-        <v>131</v>
-      </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82">
-        <v>81</v>
-      </c>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82">
-        <v>48</v>
-      </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-    </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="82" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="41">
         <f>($A$23-D24)/$A$23</f>
         <v>0.87317073170731707</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="90">
+      <c r="E25" s="39"/>
+      <c r="F25" s="41">
         <f>($A$23-F24)/$A$23</f>
         <v>0.92012195121951224</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="41">
         <f t="shared" ref="G25:M25" si="14">($A$23-G24)/$A$23</f>
         <v>1</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="41">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="41">
         <f t="shared" si="14"/>
         <v>0.95060975609756093</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="41">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="41">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="41">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="M25" s="90">
+      <c r="M25" s="41">
         <f t="shared" si="14"/>
         <v>0.97073170731707314</v>
       </c>
-      <c r="N25" s="90">
+      <c r="N25" s="41">
         <f t="shared" ref="N25" si="15">($A$23-N24)/$A$23</f>
         <v>1</v>
       </c>
-      <c r="O25" s="90">
+      <c r="O25" s="41">
         <f t="shared" ref="O25" si="16">($A$23-O24)/$A$23</f>
         <v>1</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="41">
         <f t="shared" ref="P25" si="17">($A$23-P24)/$A$23</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="Q25" s="41">
         <f t="shared" ref="Q25" si="18">($A$23-Q24)/$A$23</f>
         <v>1</v>
       </c>
-      <c r="R25" s="90">
+      <c r="R25" s="41">
         <f t="shared" ref="R25" si="19">($A$23-R24)/$A$23</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="39">
         <v>1581</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82">
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
         <v>1539</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82">
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39">
         <v>1524</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39">
         <v>1318</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="82" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="41">
         <f>($A$23-D26)/$A$23</f>
         <v>3.5975609756097558E-2</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="90">
+      <c r="E27" s="39"/>
+      <c r="F27" s="41">
         <f>($A$23-F26)/$A$23</f>
         <v>6.1585365853658536E-2</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="41">
         <f t="shared" ref="G27:R27" si="20">($A$23-G26)/$A$23</f>
         <v>1</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="41">
         <f t="shared" si="20"/>
         <v>7.0731707317073164E-2</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="M27" s="90">
+      <c r="M27" s="41">
         <f t="shared" si="20"/>
         <v>0.19634146341463415</v>
       </c>
-      <c r="N27" s="90">
+      <c r="N27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="O27" s="90">
+      <c r="O27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="90">
+      <c r="Q27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="R27" s="90">
+      <c r="R27" s="41">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -4856,10 +4859,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -4908,10 +4911,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+      <c r="A34" s="49">
         <v>584</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -4962,8 +4965,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -5014,8 +5017,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -5081,8 +5084,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -5133,8 +5136,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -5185,8 +5188,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -5252,10 +5255,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="52">
+      <c r="A40" s="55">
         <v>980</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -5306,8 +5309,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -5358,8 +5361,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -5425,8 +5428,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -5477,8 +5480,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -5529,8 +5532,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -5596,10 +5599,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="37">
+      <c r="A46" s="61">
         <v>1280</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -5650,8 +5653,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -5702,8 +5705,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -5769,8 +5772,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -5821,8 +5824,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -5873,8 +5876,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -5940,10 +5943,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="58">
+      <c r="A52" s="42">
         <v>1345</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -5994,8 +5997,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -6046,8 +6049,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -6113,8 +6116,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -6165,8 +6168,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="61"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -6217,8 +6220,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -6377,7 +6380,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="75">
+      <c r="B8" s="79">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6398,7 +6401,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="80">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -6421,7 +6424,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6440,7 +6443,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="66"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -6487,7 +6490,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="66"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -6527,7 +6530,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="67"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -6574,7 +6577,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="83">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -6616,7 +6619,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="69"/>
+      <c r="L13" s="84"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -6642,7 +6645,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="74">
+      <c r="B14" s="78">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -6663,7 +6666,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -6684,7 +6687,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -6703,7 +6706,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="70"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -6729,7 +6732,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="71">
+      <c r="L16" s="86">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -6752,7 +6755,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="72"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -6778,7 +6781,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="72"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -6799,7 +6802,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="73"/>
+      <c r="L19" s="88"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -6825,7 +6828,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="74">
+      <c r="L20" s="78">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -6848,7 +6851,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="74"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -6874,7 +6877,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="74"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6895,7 +6898,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="74"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -6949,7 +6952,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="75">
+      <c r="B31" s="79">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6972,7 +6975,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -7081,7 +7084,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="74">
+      <c r="B37" s="78">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7104,7 +7107,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="74"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -7126,6 +7129,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -7133,11 +7141,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7163,7 +7166,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="89" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -7189,7 +7192,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -7213,7 +7216,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -7237,7 +7240,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -7261,7 +7264,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -7285,7 +7288,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -7309,7 +7312,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="89" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -7335,7 +7338,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -7347,7 +7350,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -7357,11 +7360,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -7373,7 +7376,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -7403,7 +7406,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -7433,7 +7436,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Buku TA/Uji Coba.xlsx
+++ b/Buku TA/Uji Coba.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E503EDB-5B65-4D8E-AE4F-0D7D8A3F0023}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Akurasi Pengiriman" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="95">
   <si>
     <t>0 x</t>
   </si>
@@ -306,11 +306,35 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>Jarak</t>
+  </si>
+  <si>
+    <t>5 meter</t>
+  </si>
+  <si>
+    <t>10 meter</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>20 meter</t>
+  </si>
+  <si>
+    <t>30 meter</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -690,26 +714,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,31 +777,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,18 +814,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,12 +843,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,7 +1150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R52"/>
   <sheetViews>
     <sheetView topLeftCell="I26" workbookViewId="0">
@@ -1154,32 +1182,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="K2" s="69" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -1196,10 +1224,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="68"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -1218,10 +1246,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="51">
         <v>584</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1240,10 +1268,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="51">
         <v>584</v>
       </c>
-      <c r="L4" s="50"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1264,8 +1292,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1284,8 +1312,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1306,8 +1334,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1331,8 +1359,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1358,8 +1386,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1378,8 +1406,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1400,8 +1428,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1425,8 +1453,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1452,10 +1480,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="A9" s="57">
         <v>980</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1474,10 +1502,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="57">
         <v>980</v>
       </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="58"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1498,8 +1526,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1518,8 +1546,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1568,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1565,8 +1593,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1620,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1612,8 +1640,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1662,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1659,8 +1687,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1686,10 +1714,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="42">
         <v>1280</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1708,10 +1736,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="42">
         <v>1280</v>
       </c>
-      <c r="L14" s="62"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1732,8 +1760,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1750,8 +1778,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1772,8 +1800,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1797,8 +1825,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1824,8 +1852,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1842,8 +1870,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1864,8 +1892,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1889,8 +1917,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1916,10 +1944,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="63">
         <v>1345</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1938,10 +1966,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="63">
         <v>1345</v>
       </c>
-      <c r="L19" s="43"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1962,8 +1990,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1980,8 +2008,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -2002,8 +2030,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -2024,8 +2052,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -2051,8 +2079,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2069,8 +2097,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2089,8 +2117,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2111,8 +2139,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2135,10 +2163,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="48">
+      <c r="K24" s="69">
         <v>1640</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -2159,10 +2187,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -2179,10 +2207,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="68"/>
+      <c r="L28" s="50"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -2201,10 +2229,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="51">
         <v>584</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2224,10 +2252,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="49">
+      <c r="K29" s="51">
         <v>584</v>
       </c>
-      <c r="L29" s="50"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2248,8 +2276,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2296,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2290,8 +2318,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2315,8 +2343,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -2342,8 +2370,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2363,8 +2391,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2385,8 +2413,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,8 +2433,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2427,8 +2455,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2452,8 +2480,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -2479,10 +2507,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
+      <c r="A35" s="57">
         <v>980</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2502,10 +2530,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="55">
+      <c r="K35" s="57">
         <v>980</v>
       </c>
-      <c r="L35" s="56"/>
+      <c r="L35" s="58"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2526,8 +2554,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2546,8 +2574,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -2568,8 +2596,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2593,8 +2621,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2648,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2641,8 +2669,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2691,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2711,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="58"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -2705,8 +2733,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2730,8 +2758,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="62"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -2757,10 +2785,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="61">
+      <c r="A41" s="42">
         <v>1280</v>
       </c>
-      <c r="B41" s="62"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2778,10 +2806,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="61">
+      <c r="K41" s="42">
         <v>1280</v>
       </c>
-      <c r="L41" s="62"/>
+      <c r="L41" s="43"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2802,8 +2830,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2820,8 +2848,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2842,8 +2870,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2864,8 +2892,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2919,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2910,8 +2938,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2932,8 +2960,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2950,8 +2978,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="64"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -2972,8 +3000,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -2994,8 +3022,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="66"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -3021,10 +3049,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
+      <c r="A47" s="63">
         <v>1345</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3042,10 +3070,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="42">
+      <c r="K47" s="63">
         <v>1345</v>
       </c>
-      <c r="L47" s="43"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3066,8 +3094,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -3084,8 +3112,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="45"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -3104,8 +3132,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3126,8 +3154,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="45"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3178,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3169,8 +3197,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="45"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -3189,8 +3217,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3207,8 +3235,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="45"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="66"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -3227,8 +3255,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3249,8 +3277,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -3274,13 +3302,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -3297,6 +3318,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3304,11 +3332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="G37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,32 +3362,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -3411,10 +3439,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>584</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3468,8 +3496,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3523,8 +3551,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3594,8 +3622,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3649,8 +3677,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3720,10 +3748,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="A8" s="57">
         <v>980</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -3774,8 +3802,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -3829,8 +3857,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3896,8 +3924,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -3951,8 +3979,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -4018,10 +4046,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
+      <c r="A13" s="42">
         <v>1280</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4072,8 +4100,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -4127,8 +4155,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -4194,8 +4222,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4249,8 +4277,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -4316,10 +4344,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="63">
         <v>1345</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -4373,8 +4401,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4431,8 +4459,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4498,8 +4526,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4553,8 +4581,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -4859,10 +4887,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -4911,10 +4939,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+      <c r="A34" s="51">
         <v>584</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -4965,8 +4993,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -5017,8 +5045,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -5084,8 +5112,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -5136,8 +5164,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -5188,8 +5216,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -5255,10 +5283,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="55">
+      <c r="A40" s="57">
         <v>980</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -5309,8 +5337,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -5361,8 +5389,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -5428,8 +5456,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -5480,8 +5508,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -5532,8 +5560,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -5599,10 +5627,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="61">
+      <c r="A46" s="42">
         <v>1280</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -5653,8 +5681,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -5705,8 +5733,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -5772,8 +5800,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -5824,8 +5852,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -5876,8 +5904,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -5943,10 +5971,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="A52" s="63">
         <v>1345</v>
       </c>
-      <c r="B52" s="43"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -5997,8 +6025,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -6049,8 +6077,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -6116,8 +6144,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -6168,8 +6196,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -6220,8 +6248,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -6306,7 +6334,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="91">
+        <v>1</v>
+      </c>
+      <c r="E7" s="91">
+        <v>2</v>
+      </c>
+      <c r="F7" s="91">
+        <v>3</v>
+      </c>
+      <c r="G7" s="91">
+        <v>4</v>
+      </c>
+      <c r="H7" s="91">
+        <v>5</v>
+      </c>
+      <c r="I7" s="91">
+        <v>6</v>
+      </c>
+      <c r="J7" s="91">
+        <v>7</v>
+      </c>
+      <c r="K7" s="91">
+        <v>8</v>
+      </c>
+      <c r="L7" s="91">
+        <v>9</v>
+      </c>
+      <c r="M7" s="91">
+        <v>10</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>41</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <f>SUM(D8:M8)</f>
+        <v>410</v>
+      </c>
+      <c r="O8" s="92">
+        <f>N8/410</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N11" si="0">SUM(D9:M9)</f>
+        <v>410</v>
+      </c>
+      <c r="O9" s="92">
+        <f t="shared" ref="O9:O11" si="1">N9/410</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="O10" s="92">
+        <f t="shared" si="1"/>
+        <v>0.86829268292682926</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="O11" s="92">
+        <f t="shared" si="1"/>
+        <v>0.69512195121951215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6380,7 +6640,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="79">
+      <c r="B8" s="86">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6401,7 +6661,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="80">
+      <c r="L8" s="76">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -6424,7 +6684,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6443,7 +6703,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="81"/>
+      <c r="L9" s="77"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -6469,7 +6729,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="76">
+      <c r="B10" s="87">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -6490,7 +6750,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="81"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -6511,7 +6771,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -6530,7 +6790,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="82"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -6556,7 +6816,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="77">
+      <c r="B12" s="88">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6577,7 +6837,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="79">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -6600,7 +6860,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -6619,7 +6879,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="80"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -6645,7 +6905,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="78">
+      <c r="B14" s="85">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -6666,7 +6926,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="84"/>
+      <c r="L14" s="80"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -6687,7 +6947,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="78"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -6706,7 +6966,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="85"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -6732,7 +6992,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="86">
+      <c r="L16" s="82">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -6755,7 +7015,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="87"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -6781,7 +7041,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="87"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -6802,7 +7062,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="88"/>
+      <c r="L19" s="84"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -6828,7 +7088,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="78">
+      <c r="L20" s="85">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -6851,7 +7111,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="78"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -6877,7 +7137,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="78"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -6898,7 +7158,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="78"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -6952,7 +7212,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="79">
+      <c r="B31" s="86">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6975,7 +7235,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -6996,7 +7256,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="76">
+      <c r="B33" s="87">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -7019,7 +7279,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="76"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -7040,7 +7300,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="77">
+      <c r="B35" s="88">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -7063,7 +7323,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="77"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -7084,7 +7344,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="78">
+      <c r="B37" s="85">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7107,7 +7367,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="78"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -7129,11 +7389,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -7141,14 +7396,19 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D130C-42BE-4E6B-A6EF-80A1FFE77484}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:R19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
